--- a/чистый бланк/ЗАКАЗ КРЫМ 05,09,24ц-выезд 07,09.xlsx
+++ b/чистый бланк/ЗАКАЗ КРЫМ 05,09,24ц-выезд 07,09.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E83189-1F80-4922-84A0-ABCF152E9E0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B2C602-FBF4-448C-AAE4-2356BA5ED5D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,9 @@
     <sheet name="кск формула" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$136</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="206">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -618,6 +618,39 @@
   <si>
     <t xml:space="preserve"> АРОМАТНАЯ С ЧЕСНОЧКОМ СН в/к мтс 0.330кг</t>
   </si>
+  <si>
+    <t>ПРЕСИЖН с/к в/у 1/250 8шт.</t>
+  </si>
+  <si>
+    <t>ДОКТОРСКАЯ ГОСТ вар п/о</t>
+  </si>
+  <si>
+    <t>ШЕЙКА КОПЧЕНАЯ к/в мл/к в/у 300*6</t>
+  </si>
+  <si>
+    <t>САЛЯМИ ИТАЛЬЯНСКАЯ с/к в/у 1/150_60с</t>
+  </si>
+  <si>
+    <t>ГРУДИНКА ПРЕМИУМ к/в мл/к в/у 0.3кг</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ Коровино сос п/о мгс 1.5*6</t>
+  </si>
+  <si>
+    <t>ШПИК С ЧЕСНОК.И ПЕРЦЕМ к/в в/у 0.3кг_45c</t>
+  </si>
+  <si>
+    <t>ОСТАНКИНСКАЯ вар п/о 0.4кг 8шт.</t>
+  </si>
+  <si>
+    <t>БЕКОН Папа может с/к с/н в/у 1/140 10шт</t>
+  </si>
+  <si>
+    <t>КОЛБ.СНЭКИ Папа может в/к мгс 1/70_5</t>
+  </si>
+  <si>
+    <t>ОСТАНКИНСКАЯ вар п/о</t>
+  </si>
 </sst>
 </file>
 
@@ -1140,7 +1173,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1381,9 +1414,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1798,11 +1828,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M1646"/>
+  <dimension ref="A1:M1660"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E135" sqref="E135"/>
+      <pane ySplit="9" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L144" sqref="L144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1826,14 +1856,14 @@
       <c r="D1" s="59">
         <v>130425448</v>
       </c>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="101"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="100"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:12" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1841,19 +1871,19 @@
       <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="98">
+      <c r="D3" s="97">
         <v>45542</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="98"/>
-      <c r="G3" s="102">
+      <c r="F3" s="97"/>
+      <c r="G3" s="101">
         <v>45545</v>
       </c>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="101"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="100"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1947,7 +1977,7 @@
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="94" t="str">
-        <f>RIGHT(D11:D121,4)</f>
+        <f>RIGHT(D11:D135,4)</f>
         <v>5246</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -1976,43 +2006,45 @@
       <c r="J11" s="39"/>
       <c r="L11" s="95"/>
     </row>
-    <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="94" t="str">
-        <f>RIGHT(D12:D122,4)</f>
-        <v>5992</v>
+        <f>RIGHT(D12:D136,4)</f>
+        <v>4555</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>25</v>
+        <v>196</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D12" s="28">
-        <v>1001014765992</v>
+        <v>1001010014555</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23">
-        <f>E12*0.4</f>
+        <f>E12</f>
         <v>0</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="39"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="95"/>
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="94" t="str">
-        <f>RIGHT(D13:D123,4)</f>
-        <v>6268</v>
+        <f>RIGHT(D13:D136,4)</f>
+        <v>5992</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="28">
-        <v>1001012426268</v>
+        <v>1001014765992</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="23"/>
@@ -2026,17 +2058,17 @@
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="94" t="str">
-        <f>RIGHT(D14:D124,4)</f>
-        <v>6247</v>
+        <f>RIGHT(D14:D137,4)</f>
+        <v>6268</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="28">
-        <v>1001011086247</v>
+        <v>1001012426268</v>
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="23"/>
@@ -2050,78 +2082,78 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="94" t="str">
-        <f>RIGHT(D15:D124,4)</f>
-        <v>6325</v>
+        <f>RIGHT(D15:D138,4)</f>
+        <v>6247</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="28">
-        <v>1001010106325</v>
+        <v>1001011086247</v>
       </c>
       <c r="E15" s="24"/>
-      <c r="F15" s="23">
-        <v>0.4</v>
-      </c>
+      <c r="F15" s="23"/>
       <c r="G15" s="23">
         <f>E15*0.4</f>
         <v>0</v>
       </c>
-      <c r="H15" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I15" s="14">
-        <v>60</v>
-      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
       <c r="J15" s="39"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="94" t="str">
-        <f>RIGHT(D16:D125,4)</f>
-        <v>6324</v>
+        <f>RIGHT(D16:D138,4)</f>
+        <v>6325</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="28">
-        <v>1001010016324</v>
+        <v>1001010106325</v>
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="23">
         <v>0.4</v>
       </c>
       <c r="G16" s="23">
-        <f>F16*E16</f>
+        <f>E16*0.4</f>
         <v>0</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+      <c r="H16" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I16" s="14">
+        <v>60</v>
+      </c>
       <c r="J16" s="39"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="94" t="str">
-        <f>RIGHT(D17:D127,4)</f>
-        <v>6426</v>
+        <f>RIGHT(D17:D139,4)</f>
+        <v>6324</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="28">
-        <v>1001013956426</v>
+        <v>1001010016324</v>
       </c>
       <c r="E17" s="24"/>
-      <c r="F17" s="23"/>
+      <c r="F17" s="23">
+        <v>0.4</v>
+      </c>
       <c r="G17" s="23">
-        <f>E17*0.3</f>
+        <f>F17*E17</f>
         <v>0</v>
       </c>
       <c r="H17" s="14"/>
@@ -2130,58 +2162,52 @@
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="94" t="str">
-        <f>RIGHT(D18:D128,4)</f>
-        <v>4063</v>
+        <f>RIGHT(D18:D141,4)</f>
+        <v>6426</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D18" s="28">
-        <v>1001012484063</v>
+        <v>1001013956426</v>
       </c>
       <c r="E18" s="24"/>
-      <c r="F18" s="23">
-        <v>1.366666666666666</v>
-      </c>
+      <c r="F18" s="23"/>
       <c r="G18" s="23">
-        <f>E18*1</f>
+        <f>E18*0.3</f>
         <v>0</v>
       </c>
-      <c r="H18" s="14">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I18" s="14">
-        <v>60</v>
-      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
       <c r="J18" s="39"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="94" t="str">
-        <f>RIGHT(D19:D129,4)</f>
-        <v>6333</v>
+        <f>RIGHT(D19:D142,4)</f>
+        <v>4063</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="D19" s="28">
-        <v>1001012486333</v>
+        <v>1001012484063</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="23">
-        <v>0.4</v>
+        <v>1.366666666666666</v>
       </c>
       <c r="G19" s="23">
-        <f>E19*0.4</f>
+        <f>E19*1</f>
         <v>0</v>
       </c>
       <c r="H19" s="14">
-        <v>3.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I19" s="14">
         <v>60</v>
@@ -2190,28 +2216,28 @@
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="94" t="str">
-        <f>RIGHT(D20:D130,4)</f>
-        <v>4574</v>
+        <f>RIGHT(D20:D143,4)</f>
+        <v>6333</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="D20" s="28">
-        <v>1001012634574</v>
+        <v>1001012486333</v>
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="23">
-        <v>1.366666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="G20" s="23">
-        <f>E20*1</f>
+        <f>E20*0.4</f>
         <v>0</v>
       </c>
       <c r="H20" s="14">
-        <v>4.0999999999999996</v>
+        <v>3.2</v>
       </c>
       <c r="I20" s="14">
         <v>60</v>
@@ -2220,28 +2246,28 @@
     </row>
     <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="94" t="str">
-        <f>RIGHT(D21:D131,4)</f>
-        <v>6861</v>
+        <f>RIGHT(D21:D144,4)</f>
+        <v>4574</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="28">
-        <v>1001015646861</v>
+        <v>1001012634574</v>
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="23">
-        <v>2</v>
+        <v>1.366666666666666</v>
       </c>
       <c r="G21" s="23">
         <f>E21*1</f>
         <v>0</v>
       </c>
       <c r="H21" s="14">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I21" s="14">
         <v>60</v>
@@ -2250,46 +2276,52 @@
     </row>
     <row r="22" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="94" t="str">
-        <f>RIGHT(D22:D135,4)</f>
-        <v>6862</v>
+        <f>RIGHT(D22:D145,4)</f>
+        <v>6861</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="28">
-        <v>1001015706862</v>
+        <v>1001015646861</v>
       </c>
       <c r="E22" s="24"/>
-      <c r="F22" s="23"/>
+      <c r="F22" s="23">
+        <v>2</v>
+      </c>
       <c r="G22" s="23">
         <f>E22*1</f>
         <v>0</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
+      <c r="H22" s="14">
+        <v>4</v>
+      </c>
+      <c r="I22" s="14">
+        <v>60</v>
+      </c>
       <c r="J22" s="39"/>
     </row>
     <row r="23" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="94" t="str">
-        <f>RIGHT(D23:D135,4)</f>
-        <v>6341</v>
+        <f>RIGHT(D23:D149,4)</f>
+        <v>6862</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>25</v>
+        <v>35</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="D23" s="28">
-        <v>1001012816341</v>
+        <v>1001015706862</v>
       </c>
       <c r="E23" s="24"/>
       <c r="F23" s="23"/>
       <c r="G23" s="23">
-        <f>E23*0.5</f>
+        <f>E23*1</f>
         <v>0</v>
       </c>
       <c r="H23" s="14"/>
@@ -2298,88 +2330,82 @@
     </row>
     <row r="24" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="94" t="str">
-        <f>RIGHT(D24:D136,4)</f>
-        <v>6747</v>
+        <f>RIGHT(D24:D149,4)</f>
+        <v>6341</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D24" s="28">
-        <v>1001010856747</v>
+        <v>1001012816341</v>
       </c>
       <c r="E24" s="24"/>
-      <c r="F24" s="23">
-        <v>1.48</v>
-      </c>
+      <c r="F24" s="23"/>
       <c r="G24" s="23">
-        <f>E24*1</f>
+        <f>E24*0.5</f>
         <v>0</v>
       </c>
-      <c r="H24" s="14">
-        <v>2.96</v>
-      </c>
-      <c r="I24" s="14">
-        <v>45</v>
-      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
       <c r="J24" s="39"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="94" t="str">
-        <f>RIGHT(D25:D139,4)</f>
-        <v>4813</v>
+        <f>RIGHT(D25:D150,4)</f>
+        <v>6747</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="28">
-        <v>1001012564813</v>
+        <v>1001010856747</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="23">
-        <v>1.366666666666666</v>
+        <v>1.48</v>
       </c>
       <c r="G25" s="23">
         <f>E25*1</f>
         <v>0</v>
       </c>
       <c r="H25" s="14">
-        <v>4.0999999999999996</v>
+        <v>2.96</v>
       </c>
       <c r="I25" s="14">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="J25" s="39"/>
     </row>
     <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="94" t="str">
-        <f>RIGHT(D26:D140,4)</f>
-        <v>6392</v>
+        <f>RIGHT(D26:D153,4)</f>
+        <v>4813</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D26" s="28">
-        <v>1001012566392</v>
+        <v>1001012564813</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="23">
-        <v>0.4</v>
+        <v>1.366666666666666</v>
       </c>
       <c r="G26" s="23">
-        <f>E26*0.4</f>
+        <f>E26*1</f>
         <v>0</v>
       </c>
       <c r="H26" s="14">
-        <v>3.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I26" s="14">
         <v>60</v>
@@ -2388,230 +2414,237 @@
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="94" t="str">
-        <f>RIGHT(D27:D142,4)</f>
-        <v>5851</v>
+        <f>RIGHT(D27:D154,4)</f>
+        <v>6392</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>23</v>
+        <v>39</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D27" s="28">
-        <v>1001012505851</v>
+        <v>1001012566392</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="23">
-        <v>1.366666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="G27" s="23">
-        <f>E27*1</f>
+        <f>E27*0.4</f>
         <v>0</v>
       </c>
       <c r="H27" s="14">
-        <v>4.0999999999999996</v>
+        <v>3.2</v>
       </c>
       <c r="I27" s="14">
         <v>60</v>
       </c>
       <c r="J27" s="39"/>
     </row>
-    <row r="28" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="94" t="str">
-        <f>RIGHT(D28:D143,4)</f>
-        <v>6158</v>
+        <f>RIGHT(D28:D155,4)</f>
+        <v>6801</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="28">
-        <v>1001014486158</v>
+        <v>1001012596801</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="23">
         <v>0.4</v>
       </c>
       <c r="G28" s="23">
-        <f>E28*0.4</f>
+        <f>F28*E28</f>
         <v>0</v>
       </c>
       <c r="H28" s="14"/>
-      <c r="I28" s="14">
-        <v>60</v>
-      </c>
+      <c r="I28" s="14"/>
       <c r="J28" s="39"/>
-    </row>
-    <row r="29" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K28" s="82"/>
+    </row>
+    <row r="29" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="94" t="str">
-        <f>RIGHT(D29:D145,4)</f>
-        <v>6340</v>
-      </c>
-      <c r="B29" s="97" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>25</v>
+        <f>RIGHT(D29:D156,4)</f>
+        <v>6802</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D29" s="28">
-        <v>1001012816340</v>
+        <v>1001012596802</v>
       </c>
       <c r="E29" s="24"/>
-      <c r="F29" s="23">
-        <v>0.5</v>
-      </c>
+      <c r="F29" s="23"/>
       <c r="G29" s="23">
-        <f>E29*0.5</f>
+        <f>E29</f>
         <v>0</v>
       </c>
       <c r="H29" s="14"/>
-      <c r="I29" s="14">
-        <v>60</v>
-      </c>
+      <c r="I29" s="14"/>
       <c r="J29" s="39"/>
-    </row>
-    <row r="30" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K29" s="82"/>
+    </row>
+    <row r="30" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="94" t="str">
-        <f>RIGHT(D30:D143,4)</f>
-        <v>6353</v>
+        <f>RIGHT(D30:D156,4)</f>
+        <v>5851</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D30" s="28">
-        <v>1001012506353</v>
+        <v>1001012505851</v>
       </c>
       <c r="E30" s="24"/>
       <c r="F30" s="23">
-        <v>0.4</v>
+        <v>1.366666666666666</v>
       </c>
       <c r="G30" s="23">
-        <f>E30*0.4</f>
+        <f>E30*1</f>
         <v>0</v>
       </c>
       <c r="H30" s="14">
-        <v>3.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I30" s="14">
         <v>60</v>
       </c>
       <c r="J30" s="39"/>
     </row>
-    <row r="31" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="94" t="str">
-        <f>RIGHT(D31:D144,4)</f>
-        <v/>
-      </c>
-      <c r="B31" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="75"/>
-    </row>
-    <row r="32" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D31:D157,4)</f>
+        <v>6158</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="28">
+        <v>1001014486158</v>
+      </c>
+      <c r="E31" s="24"/>
+      <c r="F31" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="G31" s="23">
+        <f>E31*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14">
+        <v>60</v>
+      </c>
+      <c r="J31" s="39"/>
+    </row>
+    <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="94" t="str">
-        <f>RIGHT(D32:D147,4)</f>
-        <v>6870</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>23</v>
+        <f>RIGHT(D32:D159,4)</f>
+        <v>6340</v>
+      </c>
+      <c r="B32" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D32" s="28">
-        <v>1001023856870</v>
+        <v>1001012816340</v>
       </c>
       <c r="E32" s="24"/>
-      <c r="F32" s="23"/>
+      <c r="F32" s="23">
+        <v>0.5</v>
+      </c>
       <c r="G32" s="23">
-        <f>E32*1</f>
+        <f>E32*0.5</f>
         <v>0</v>
       </c>
       <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
+      <c r="I32" s="14">
+        <v>60</v>
+      </c>
       <c r="J32" s="39"/>
-      <c r="K32" s="82"/>
-    </row>
-    <row r="33" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="94" t="str">
-        <f>RIGHT(D33:D147,4)</f>
-        <v>6602</v>
+        <f>RIGHT(D33:D157,4)</f>
+        <v>6353</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C33" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="28">
-        <v>1001021966602</v>
+        <v>1001012506353</v>
       </c>
       <c r="E33" s="24"/>
-      <c r="F33" s="23"/>
+      <c r="F33" s="23">
+        <v>0.4</v>
+      </c>
       <c r="G33" s="23">
-        <f>E33*0.35</f>
+        <f>E33*0.4</f>
         <v>0</v>
       </c>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
+      <c r="H33" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I33" s="14">
+        <v>60</v>
+      </c>
       <c r="J33" s="39"/>
-      <c r="K33" s="82"/>
-    </row>
-    <row r="34" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="94" t="str">
-        <f>RIGHT(D34:D150,4)</f>
-        <v>6768</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="28">
-        <v>1001025176768</v>
-      </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23">
-        <f>E34*0.41</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="82"/>
-    </row>
-    <row r="35" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D34:D158,4)</f>
+        <v/>
+      </c>
+      <c r="B34" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="75"/>
+    </row>
+    <row r="35" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A35" s="94" t="str">
-        <f>RIGHT(D35:D151,4)</f>
-        <v>6770</v>
+        <f>RIGHT(D35:D161,4)</f>
+        <v>6870</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>25</v>
+        <v>45</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D35" s="28">
-        <v>1001025486770</v>
+        <v>1001023856870</v>
       </c>
       <c r="E35" s="24"/>
       <c r="F35" s="23"/>
       <c r="G35" s="23">
-        <f>E35*0.41</f>
+        <f>E35*1</f>
         <v>0</v>
       </c>
       <c r="H35" s="14"/>
@@ -2619,120 +2652,124 @@
       <c r="J35" s="39"/>
       <c r="K35" s="82"/>
     </row>
-    <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="94" t="str">
-        <f>RIGHT(D36:D154,4)</f>
-        <v>6829</v>
+        <f>RIGHT(D36:D162,4)</f>
+        <v>6253</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="C36" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D36" s="28">
-        <v>1001024976829</v>
+        <v>1001020836253</v>
       </c>
       <c r="E36" s="24"/>
       <c r="F36" s="23"/>
       <c r="G36" s="23">
-        <f>E36*1</f>
+        <f>E36</f>
         <v>0</v>
       </c>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
       <c r="J36" s="39"/>
-    </row>
-    <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K36" s="82"/>
+    </row>
+    <row r="37" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="94" t="str">
-        <f>RIGHT(D37:D159,4)</f>
-        <v>6854</v>
+        <f>RIGHT(D37:D161,4)</f>
+        <v>6602</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C37" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D37" s="28">
-        <v>1001022656854</v>
+        <v>1001021966602</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="23"/>
       <c r="G37" s="23">
-        <f>E37*0.6</f>
+        <f>E37*0.35</f>
         <v>0</v>
       </c>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="39"/>
-    </row>
-    <row r="38" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K37" s="82"/>
+    </row>
+    <row r="38" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="94" t="str">
-        <f>RIGHT(D38:D160,4)</f>
-        <v>6852</v>
+        <f>RIGHT(D38:D164,4)</f>
+        <v>6768</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C38" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="28">
-        <v>1001022656852</v>
+        <v>1001025176768</v>
       </c>
       <c r="E38" s="24"/>
       <c r="F38" s="23"/>
       <c r="G38" s="23">
-        <f>E38*0.35</f>
+        <f>E38*0.41</f>
         <v>0</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
       <c r="J38" s="39"/>
-    </row>
-    <row r="39" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K38" s="82"/>
+    </row>
+    <row r="39" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="94" t="str">
-        <f>RIGHT(D39:D160,4)</f>
-        <v>6853</v>
+        <f>RIGHT(D39:D165,4)</f>
+        <v>6770</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D39" s="28">
-        <v>1001022656853</v>
+        <v>1001025486770</v>
       </c>
       <c r="E39" s="24"/>
       <c r="F39" s="23"/>
       <c r="G39" s="23">
-        <f>E39*1</f>
+        <f>E39*0.41</f>
         <v>0</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
       <c r="J39" s="39"/>
+      <c r="K39" s="82"/>
     </row>
     <row r="40" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="94" t="str">
-        <f>RIGHT(D40:D161,4)</f>
-        <v>6759</v>
+        <f>RIGHT(D40:D168,4)</f>
+        <v>6829</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>25</v>
+        <v>49</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="D40" s="28">
-        <v>1001020836759</v>
+        <v>1001024976829</v>
       </c>
       <c r="E40" s="24"/>
       <c r="F40" s="23"/>
       <c r="G40" s="23">
-        <f>E40*0.4</f>
+        <f>E40*1</f>
         <v>0</v>
       </c>
       <c r="H40" s="14"/>
@@ -2741,133 +2778,117 @@
     </row>
     <row r="41" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="94" t="str">
-        <f>RIGHT(D41:D162,4)</f>
-        <v>6901</v>
+        <f>RIGHT(D41:D173,4)</f>
+        <v>6854</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D41" s="28">
-        <v>1001025526901</v>
+        <v>1001022656854</v>
       </c>
       <c r="E41" s="24"/>
-      <c r="F41" s="23">
-        <v>0.16</v>
-      </c>
+      <c r="F41" s="23"/>
       <c r="G41" s="23">
-        <f>E41*F41</f>
+        <f>E41*0.6</f>
         <v>0</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="39"/>
     </row>
-    <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="94" t="str">
-        <f>RIGHT(D42:D161,4)</f>
-        <v>6303</v>
-      </c>
-      <c r="B42" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="30" t="s">
+        <f>RIGHT(D42:D174,4)</f>
+        <v>6852</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="28">
+        <v>1001022656852</v>
+      </c>
+      <c r="E42" s="24"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23">
+        <f>E42*0.35</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="39"/>
+    </row>
+    <row r="43" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="94" t="str">
+        <f>RIGHT(D43:D174,4)</f>
+        <v>6853</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="28">
-        <v>1001022726303</v>
-      </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="23">
-        <v>1.0666666666666671</v>
-      </c>
-      <c r="G42" s="23">
-        <f>E42*1</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I42" s="14">
-        <v>45</v>
-      </c>
-      <c r="J42" s="39"/>
-      <c r="K42" s="82"/>
-    </row>
-    <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="94" t="str">
-        <f>RIGHT(D43:D162,4)</f>
-        <v>6777</v>
-      </c>
-      <c r="B43" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>25</v>
-      </c>
       <c r="D43" s="28">
-        <v>1001025506777</v>
+        <v>1001022656853</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="23"/>
       <c r="G43" s="23">
-        <f>E43*0.4</f>
+        <f>E43*1</f>
         <v>0</v>
       </c>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
       <c r="J43" s="39"/>
-      <c r="K43" s="82"/>
     </row>
     <row r="44" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="94" t="str">
-        <f>RIGHT(D44:D162,4)</f>
-        <v>6726</v>
-      </c>
-      <c r="B44" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="33" t="s">
+        <f>RIGHT(D44:D175,4)</f>
+        <v>6759</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="30" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="28">
-        <v>1001022466726</v>
+        <v>1001020836759</v>
       </c>
       <c r="E44" s="24"/>
-      <c r="F44" s="23">
-        <v>0.45</v>
-      </c>
+      <c r="F44" s="23"/>
       <c r="G44" s="23">
-        <f>E44*0.41</f>
+        <f>E44*0.4</f>
         <v>0</v>
       </c>
-      <c r="H44" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="I44" s="14">
-        <v>45</v>
-      </c>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
       <c r="J44" s="39"/>
     </row>
     <row r="45" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="94" t="str">
-        <f>RIGHT(D45:D163,4)</f>
-        <v>6762</v>
-      </c>
-      <c r="B45" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="33" t="s">
-        <v>25</v>
+        <f>RIGHT(D45:D176,4)</f>
+        <v>6901</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>55</v>
       </c>
       <c r="D45" s="28">
-        <v>1001020846762</v>
+        <v>1001025526901</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="23">
-        <v>0.41</v>
+        <v>0.16</v>
       </c>
       <c r="G45" s="23">
         <f>E45*F45</f>
@@ -2877,98 +2898,112 @@
       <c r="I45" s="14"/>
       <c r="J45" s="39"/>
     </row>
-    <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="94" t="str">
-        <f>RIGHT(D46:D163,4)</f>
-        <v>5820</v>
-      </c>
-      <c r="B46" s="45" t="s">
-        <v>60</v>
+        <f>RIGHT(D46:D175,4)</f>
+        <v>6303</v>
+      </c>
+      <c r="B46" s="70" t="s">
+        <v>56</v>
       </c>
       <c r="C46" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D46" s="28">
-        <v>1001022465820</v>
+        <v>1001022726303</v>
       </c>
       <c r="E46" s="24"/>
-      <c r="F46" s="23"/>
+      <c r="F46" s="23">
+        <v>1.0666666666666671</v>
+      </c>
       <c r="G46" s="23">
         <f>E46*1</f>
         <v>0</v>
       </c>
-      <c r="H46" s="14"/>
+      <c r="H46" s="14">
+        <v>3.2</v>
+      </c>
       <c r="I46" s="14">
         <v>45</v>
       </c>
       <c r="J46" s="39"/>
-    </row>
-    <row r="47" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K46" s="82"/>
+    </row>
+    <row r="47" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="94" t="str">
-        <f>RIGHT(D47:D165,4)</f>
-        <v>6764</v>
-      </c>
-      <c r="B47" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>23</v>
+        <f>RIGHT(D47:D176,4)</f>
+        <v>6777</v>
+      </c>
+      <c r="B47" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D47" s="28">
-        <v>1001020846764</v>
+        <v>1001025506777</v>
       </c>
       <c r="E47" s="24"/>
       <c r="F47" s="23"/>
       <c r="G47" s="23">
-        <f>E47*1</f>
+        <f>E47*0.4</f>
         <v>0</v>
       </c>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
       <c r="J47" s="39"/>
+      <c r="K47" s="82"/>
     </row>
     <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="94" t="str">
-        <f>RIGHT(D48:D167,4)</f>
-        <v>6761</v>
+        <f>RIGHT(D48:D176,4)</f>
+        <v>6726</v>
       </c>
       <c r="B48" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>23</v>
+        <v>58</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D48" s="28">
-        <v>1001020836761</v>
+        <v>1001022466726</v>
       </c>
       <c r="E48" s="24"/>
-      <c r="F48" s="23"/>
+      <c r="F48" s="23">
+        <v>0.45</v>
+      </c>
       <c r="G48" s="23">
-        <f>E48*1</f>
+        <f>E48*0.41</f>
         <v>0</v>
       </c>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
+      <c r="H48" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="I48" s="14">
+        <v>45</v>
+      </c>
       <c r="J48" s="39"/>
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="94" t="str">
-        <f>RIGHT(D49:D168,4)</f>
-        <v>6767</v>
+        <f>RIGHT(D49:D177,4)</f>
+        <v>6762</v>
       </c>
       <c r="B49" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>23</v>
+        <v>59</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D49" s="28">
-        <v>1001023696767</v>
+        <v>1001020846762</v>
       </c>
       <c r="E49" s="24"/>
-      <c r="F49" s="23"/>
+      <c r="F49" s="23">
+        <v>0.41</v>
+      </c>
       <c r="G49" s="23">
-        <f>E49*1</f>
+        <f>E49*F49</f>
         <v>0</v>
       </c>
       <c r="H49" s="14"/>
@@ -2977,48 +3012,48 @@
     </row>
     <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="94" t="str">
-        <f>RIGHT(D50:D168,4)</f>
-        <v>6765</v>
+        <f>RIGHT(D50:D177,4)</f>
+        <v>5820</v>
       </c>
       <c r="B50" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C50" s="33" t="s">
-        <v>25</v>
+        <v>60</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D50" s="28">
-        <v>1001023696765</v>
+        <v>1001022465820</v>
       </c>
       <c r="E50" s="24"/>
       <c r="F50" s="23"/>
       <c r="G50" s="23">
-        <f>E50*0.36</f>
+        <f>E50*1</f>
         <v>0</v>
       </c>
       <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
+      <c r="I50" s="14">
+        <v>45</v>
+      </c>
       <c r="J50" s="39"/>
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="94" t="str">
-        <f>RIGHT(D51:D169,4)</f>
-        <v>6909</v>
+        <f>RIGHT(D51:D179,4)</f>
+        <v>6764</v>
       </c>
       <c r="B51" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="33" t="s">
-        <v>25</v>
+        <v>61</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D51" s="28">
-        <v>1001025766909</v>
+        <v>1001020846764</v>
       </c>
       <c r="E51" s="24"/>
-      <c r="F51" s="23">
-        <v>0.33</v>
-      </c>
+      <c r="F51" s="23"/>
       <c r="G51" s="23">
-        <f>E51*F51</f>
+        <f>E51*1</f>
         <v>0</v>
       </c>
       <c r="H51" s="14"/>
@@ -3027,54 +3062,46 @@
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="94" t="str">
-        <f>RIGHT(D52:D168,4)</f>
-        <v>6722</v>
+        <f>RIGHT(D52:D181,4)</f>
+        <v>6761</v>
       </c>
       <c r="B52" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="33" t="s">
-        <v>25</v>
+        <v>62</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D52" s="28">
-        <v>1001022376722</v>
+        <v>1001020836761</v>
       </c>
       <c r="E52" s="24"/>
-      <c r="F52" s="23">
-        <v>0.41</v>
-      </c>
+      <c r="F52" s="23"/>
       <c r="G52" s="23">
-        <f>E52*0.41</f>
+        <f>E52*1</f>
         <v>0</v>
       </c>
-      <c r="H52" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="I52" s="14">
-        <v>45</v>
-      </c>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
       <c r="J52" s="39"/>
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="94" t="str">
-        <f>RIGHT(D53:D169,4)</f>
-        <v>6837</v>
+        <f>RIGHT(D53:D182,4)</f>
+        <v>6767</v>
       </c>
       <c r="B53" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" s="33" t="s">
-        <v>25</v>
+        <v>63</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D53" s="28">
-        <v>1001022556837</v>
+        <v>1001023696767</v>
       </c>
       <c r="E53" s="24"/>
-      <c r="F53" s="23">
-        <v>0.4</v>
-      </c>
+      <c r="F53" s="23"/>
       <c r="G53" s="23">
-        <f>E53*0.4</f>
+        <f>E53*1</f>
         <v>0</v>
       </c>
       <c r="H53" s="14"/>
@@ -3083,223 +3110,228 @@
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="94" t="str">
-        <f>RIGHT(D54:D169,4)</f>
-        <v>3812</v>
+        <f>RIGHT(D54:D182,4)</f>
+        <v>6765</v>
       </c>
       <c r="B54" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="30" t="s">
-        <v>23</v>
+        <v>64</v>
+      </c>
+      <c r="C54" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D54" s="28">
-        <v>1001022373812</v>
+        <v>1001023696765</v>
       </c>
       <c r="E54" s="24"/>
-      <c r="F54" s="23">
-        <v>2.125</v>
-      </c>
+      <c r="F54" s="23"/>
       <c r="G54" s="23">
-        <f>E54*1</f>
+        <f>E54*0.36</f>
         <v>0</v>
       </c>
-      <c r="H54" s="14">
-        <v>4.25</v>
-      </c>
-      <c r="I54" s="14">
-        <v>45</v>
-      </c>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
       <c r="J54" s="39"/>
     </row>
-    <row r="55" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="94" t="str">
-        <f>RIGHT(D55:D170,4)</f>
-        <v>6113</v>
-      </c>
-      <c r="B55" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="30" t="s">
-        <v>23</v>
+        <f>RIGHT(D55:D183,4)</f>
+        <v>6909</v>
+      </c>
+      <c r="B55" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D55" s="28">
-        <v>1001022376113</v>
+        <v>1001025766909</v>
       </c>
       <c r="E55" s="24"/>
       <c r="F55" s="23">
-        <v>1.033333333333333</v>
+        <v>0.33</v>
       </c>
       <c r="G55" s="23">
-        <f>E55*1</f>
+        <f>E55*F55</f>
         <v>0</v>
       </c>
-      <c r="H55" s="14">
-        <v>6.2000000000000011</v>
-      </c>
-      <c r="I55" s="14">
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="39"/>
+    </row>
+    <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="94" t="str">
+        <f>RIGHT(D56:D182,4)</f>
+        <v>6722</v>
+      </c>
+      <c r="B56" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="28">
+        <v>1001022376722</v>
+      </c>
+      <c r="E56" s="24"/>
+      <c r="F56" s="23">
+        <v>0.41</v>
+      </c>
+      <c r="G56" s="23">
+        <f>E56*0.41</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="I56" s="14">
         <v>45</v>
       </c>
-      <c r="J55" s="39"/>
-      <c r="K55" s="82"/>
-    </row>
-    <row r="56" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="94" t="str">
-        <f>RIGHT(D56:D171,4)</f>
-        <v>6661</v>
-      </c>
-      <c r="B56" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D56" s="28">
-        <v>1001022246661</v>
-      </c>
-      <c r="E56" s="24"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23">
-        <f>E56*1</f>
-        <v>0</v>
-      </c>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
       <c r="J56" s="39"/>
-      <c r="K56" s="82"/>
-    </row>
-    <row r="57" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="94" t="str">
-        <f>RIGHT(D57:D172,4)</f>
-        <v>6713</v>
-      </c>
-      <c r="B57" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="35" t="s">
+        <f>RIGHT(D57:D183,4)</f>
+        <v>6837</v>
+      </c>
+      <c r="B57" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="28">
-        <v>1001022246713</v>
+        <v>1001022556837</v>
       </c>
       <c r="E57" s="24"/>
-      <c r="F57" s="23"/>
+      <c r="F57" s="23">
+        <v>0.4</v>
+      </c>
       <c r="G57" s="23">
-        <f>E57*0.41</f>
+        <f>E57*0.4</f>
         <v>0</v>
       </c>
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
       <c r="J57" s="39"/>
-      <c r="K57" s="82"/>
-    </row>
-    <row r="58" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="94" t="str">
-        <f>RIGHT(D58:D168,4)</f>
-        <v/>
-      </c>
-      <c r="B58" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="C58" s="74"/>
-      <c r="D58" s="74"/>
-      <c r="E58" s="74"/>
-      <c r="F58" s="73"/>
-      <c r="G58" s="74"/>
-      <c r="H58" s="74"/>
-      <c r="I58" s="74"/>
-      <c r="J58" s="75"/>
-    </row>
-    <row r="59" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D58:D183,4)</f>
+        <v>3812</v>
+      </c>
+      <c r="B58" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="28">
+        <v>1001022373812</v>
+      </c>
+      <c r="E58" s="24"/>
+      <c r="F58" s="23">
+        <v>2.125</v>
+      </c>
+      <c r="G58" s="23">
+        <f>E58*1</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="14">
+        <v>4.25</v>
+      </c>
+      <c r="I58" s="14">
+        <v>45</v>
+      </c>
+      <c r="J58" s="39"/>
+    </row>
+    <row r="59" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="94" t="str">
-        <f>RIGHT(D59:D169,4)</f>
-        <v>5698</v>
-      </c>
-      <c r="B59" s="46" t="s">
-        <v>73</v>
+        <f>RIGHT(D59:D184,4)</f>
+        <v>6113</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="C59" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D59" s="28">
-        <v>1001034065698</v>
+        <v>1001022376113</v>
       </c>
       <c r="E59" s="24"/>
       <c r="F59" s="23">
-        <v>1.013333333333333</v>
+        <v>1.033333333333333</v>
       </c>
       <c r="G59" s="23">
         <f>E59*1</f>
         <v>0</v>
       </c>
       <c r="H59" s="14">
-        <v>3.04</v>
+        <v>6.2000000000000011</v>
       </c>
       <c r="I59" s="14">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J59" s="39"/>
-    </row>
-    <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K59" s="82"/>
+    </row>
+    <row r="60" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="94" t="str">
-        <f>RIGHT(D60:D172,4)</f>
-        <v>6528</v>
-      </c>
-      <c r="B60" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="C60" s="33" t="s">
-        <v>25</v>
+        <f>RIGHT(D60:D185,4)</f>
+        <v>6661</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D60" s="28">
-        <v>1001031076528</v>
+        <v>1001022246661</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="23"/>
       <c r="G60" s="23">
-        <f>E60*0.4</f>
+        <f>E60*1</f>
         <v>0</v>
       </c>
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
       <c r="J60" s="39"/>
-    </row>
-    <row r="61" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K60" s="82"/>
+    </row>
+    <row r="61" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="94" t="str">
-        <f t="shared" ref="A61:A66" si="0">RIGHT(D61:D174,4)</f>
-        <v>6527</v>
-      </c>
-      <c r="B61" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C61" s="30" t="s">
-        <v>23</v>
+        <f>RIGHT(D61:D186,4)</f>
+        <v>6713</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>25</v>
       </c>
       <c r="D61" s="28">
-        <v>1001031076527</v>
+        <v>1001022246713</v>
       </c>
       <c r="E61" s="24"/>
-      <c r="F61" s="23">
-        <v>1.0166666666666671</v>
-      </c>
+      <c r="F61" s="23"/>
       <c r="G61" s="23">
-        <f>E61*1</f>
+        <f>E61*0.41</f>
         <v>0</v>
       </c>
-      <c r="H61" s="14">
-        <v>3.05</v>
-      </c>
-      <c r="I61" s="14">
-        <v>30</v>
-      </c>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
       <c r="J61" s="39"/>
+      <c r="K61" s="82"/>
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D62:D182,4)</f>
         <v/>
       </c>
       <c r="B62" s="74" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C62" s="74"/>
       <c r="D62" s="74"/>
@@ -3312,121 +3344,118 @@
     </row>
     <row r="63" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A63" s="94" t="str">
-        <f t="shared" si="0"/>
-        <v>6666</v>
-      </c>
-      <c r="B63" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" s="33" t="s">
-        <v>25</v>
+        <f>RIGHT(D63:D183,4)</f>
+        <v>5698</v>
+      </c>
+      <c r="B63" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D63" s="28">
-        <v>1001302276666</v>
+        <v>1001034065698</v>
       </c>
       <c r="E63" s="24"/>
       <c r="F63" s="23">
-        <v>0.28000000000000003</v>
+        <v>1.013333333333333</v>
       </c>
       <c r="G63" s="23">
-        <f>E63*0.28</f>
+        <f>E63*1</f>
         <v>0</v>
       </c>
       <c r="H63" s="14">
-        <v>2.2400000000000002</v>
+        <v>3.04</v>
       </c>
       <c r="I63" s="14">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J63" s="39"/>
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="94" t="str">
-        <f t="shared" si="0"/>
-        <v>6785</v>
-      </c>
-      <c r="B64" s="27" t="s">
-        <v>78</v>
+        <f>RIGHT(D64:D186,4)</f>
+        <v>6528</v>
+      </c>
+      <c r="B64" s="46" t="s">
+        <v>74</v>
       </c>
       <c r="C64" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="28">
-        <v>1001300516785</v>
+        <v>1001031076528</v>
       </c>
       <c r="E64" s="24"/>
       <c r="F64" s="23"/>
       <c r="G64" s="23">
-        <f>E64*0.33</f>
+        <f>E64*0.4</f>
         <v>0</v>
       </c>
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
       <c r="J64" s="39"/>
     </row>
-    <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="94" t="str">
-        <f t="shared" si="0"/>
-        <v>6786</v>
-      </c>
-      <c r="B65" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C65" s="33" t="s">
+        <f>RIGHT(D65:D188,4)</f>
+        <v>6527</v>
+      </c>
+      <c r="B65" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D65" s="28">
-        <v>1001300516786</v>
+        <v>1001031076527</v>
       </c>
       <c r="E65" s="24"/>
-      <c r="F65" s="23"/>
+      <c r="F65" s="23">
+        <v>1.0166666666666671</v>
+      </c>
       <c r="G65" s="23">
-        <f>E65</f>
+        <f>E65*1</f>
         <v>0</v>
       </c>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
+      <c r="H65" s="14">
+        <v>3.05</v>
+      </c>
+      <c r="I65" s="14">
+        <v>30</v>
+      </c>
       <c r="J65" s="39"/>
     </row>
-    <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="94" t="str">
-        <f t="shared" si="0"/>
-        <v>6794</v>
-      </c>
-      <c r="B66" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="C66" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D66" s="28">
-        <v>1001303636794</v>
-      </c>
-      <c r="E66" s="24"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23">
-        <f>E66</f>
-        <v>0</v>
-      </c>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14">
-        <v>45</v>
-      </c>
-      <c r="J66" s="39"/>
-    </row>
-    <row r="67" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f>RIGHT(D66:D189,4)</f>
+        <v/>
+      </c>
+      <c r="B66" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" s="74"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="74"/>
+      <c r="H66" s="74"/>
+      <c r="I66" s="74"/>
+      <c r="J66" s="75"/>
+    </row>
+    <row r="67" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A67" s="94" t="str">
-        <f>RIGHT(D67:D177,4)</f>
-        <v>6773</v>
+        <f>RIGHT(D67:D190,4)</f>
+        <v>6666</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C67" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="28">
-        <v>1001303106773</v>
+        <v>1001302276666</v>
       </c>
       <c r="E67" s="24"/>
       <c r="F67" s="23">
@@ -3444,331 +3473,328 @@
       </c>
       <c r="J67" s="39"/>
     </row>
-    <row r="68" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="94" t="str">
-        <f>RIGHT(D68:D180,4)</f>
-        <v/>
-      </c>
-      <c r="B68" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="C68" s="74"/>
-      <c r="D68" s="74"/>
-      <c r="E68" s="74"/>
-      <c r="F68" s="73"/>
-      <c r="G68" s="74"/>
-      <c r="H68" s="74"/>
-      <c r="I68" s="74"/>
-      <c r="J68" s="75"/>
-    </row>
-    <row r="69" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D68:D191,4)</f>
+        <v>6785</v>
+      </c>
+      <c r="B68" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="28">
+        <v>1001300516785</v>
+      </c>
+      <c r="E68" s="24"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23">
+        <f>E68*0.33</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="39"/>
+    </row>
+    <row r="69" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="94" t="str">
-        <f>RIGHT(D69:D181,4)</f>
-        <v>6683</v>
+        <f>RIGHT(D69:D192,4)</f>
+        <v>6415</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="C69" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="28">
-        <v>1001300386683</v>
+        <v>1001303636415</v>
       </c>
       <c r="E69" s="24"/>
       <c r="F69" s="23">
-        <v>0.35</v>
+        <v>0.84</v>
       </c>
       <c r="G69" s="23">
-        <f>E69*0.35</f>
+        <f>F69*E69</f>
         <v>0</v>
       </c>
-      <c r="H69" s="14">
-        <v>2.8</v>
-      </c>
-      <c r="I69" s="14">
-        <v>45</v>
-      </c>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
       <c r="J69" s="39"/>
-    </row>
-    <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K69" s="82"/>
+    </row>
+    <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="94" t="str">
-        <f>RIGHT(D70:D183,4)</f>
-        <v>6793</v>
+        <f>RIGHT(D70:D192,4)</f>
+        <v>6786</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C70" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D70" s="28">
-        <v>1001303636793</v>
+        <v>1001300516786</v>
       </c>
       <c r="E70" s="24"/>
       <c r="F70" s="23"/>
       <c r="G70" s="23">
-        <f>E70*0.33</f>
+        <f>E70</f>
         <v>0</v>
       </c>
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
       <c r="J70" s="39"/>
     </row>
-    <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="94" t="str">
-        <f>RIGHT(D71:D184,4)</f>
-        <v>6795</v>
+        <f>RIGHT(D71:D193,4)</f>
+        <v>6794</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D71" s="28">
-        <v>1001302596795</v>
+        <v>1001303636794</v>
       </c>
       <c r="E71" s="24"/>
       <c r="F71" s="23"/>
       <c r="G71" s="23">
-        <f>E71*0.33</f>
+        <f>E71</f>
         <v>0</v>
       </c>
       <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
+      <c r="I71" s="14">
+        <v>45</v>
+      </c>
       <c r="J71" s="39"/>
     </row>
-    <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="94" t="str">
-        <f>RIGHT(D72:D184,4)</f>
-        <v>6807</v>
+        <f>RIGHT(D72:D191,4)</f>
+        <v>6773</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C72" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="28">
-        <v>1001300366807</v>
+        <v>1001303106773</v>
       </c>
       <c r="E72" s="24"/>
-      <c r="F72" s="23"/>
+      <c r="F72" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G72" s="23">
-        <f>E72*0.33</f>
+        <f>E72*0.28</f>
         <v>0</v>
       </c>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
+      <c r="H72" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I72" s="14">
+        <v>45</v>
+      </c>
       <c r="J72" s="39"/>
     </row>
-    <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="94" t="str">
-        <f>RIGHT(D73:D184,4)</f>
-        <v>6684</v>
-      </c>
-      <c r="B73" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C73" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D73" s="28">
-        <v>1001304506684</v>
-      </c>
-      <c r="E73" s="24"/>
-      <c r="F73" s="23">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G73" s="23">
-        <f>E73*0.28</f>
-        <v>0</v>
-      </c>
-      <c r="H73" s="14">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I73" s="14">
-        <v>45</v>
-      </c>
-      <c r="J73" s="39"/>
-    </row>
-    <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D73:D194,4)</f>
+        <v/>
+      </c>
+      <c r="B73" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="74"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="73"/>
+      <c r="G73" s="74"/>
+      <c r="H73" s="74"/>
+      <c r="I73" s="74"/>
+      <c r="J73" s="75"/>
+    </row>
+    <row r="74" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A74" s="94" t="str">
-        <f>RIGHT(D74:D186,4)</f>
-        <v>6787</v>
+        <f>RIGHT(D74:D195,4)</f>
+        <v>6683</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C74" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="28">
-        <v>1001300456787</v>
+        <v>1001300386683</v>
       </c>
       <c r="E74" s="24"/>
-      <c r="F74" s="23"/>
+      <c r="F74" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G74" s="23">
-        <f>E74*0.33</f>
+        <f>E74*0.35</f>
         <v>0</v>
       </c>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
+      <c r="H74" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="I74" s="14">
+        <v>45</v>
+      </c>
       <c r="J74" s="39"/>
     </row>
-    <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="94" t="str">
-        <f>RIGHT(D75:D187,4)</f>
-        <v>6788</v>
+        <f>RIGHT(D75:D197,4)</f>
+        <v>6793</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D75" s="28">
-        <v>1001300456788</v>
+        <v>1001303636793</v>
       </c>
       <c r="E75" s="24"/>
       <c r="F75" s="23"/>
       <c r="G75" s="23">
-        <f>E75*1</f>
+        <f>E75*0.33</f>
         <v>0</v>
       </c>
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
       <c r="J75" s="39"/>
     </row>
-    <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="94" t="str">
-        <f>RIGHT(D76:D188,4)</f>
-        <v>6790</v>
+        <f>RIGHT(D76:D198,4)</f>
+        <v>6795</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C76" s="33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D76" s="28">
-        <v>1001300366790</v>
+        <v>1001302596795</v>
       </c>
       <c r="E76" s="24"/>
       <c r="F76" s="23"/>
       <c r="G76" s="23">
-        <f>E76*1</f>
+        <f>E76*0.33</f>
         <v>0</v>
       </c>
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
       <c r="J76" s="39"/>
     </row>
-    <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="94" t="str">
-        <f>RIGHT(D77:D187,4)</f>
-        <v>6689</v>
-      </c>
-      <c r="B77" s="64" t="s">
-        <v>91</v>
+        <f>RIGHT(D77:D198,4)</f>
+        <v>6807</v>
+      </c>
+      <c r="B77" s="27" t="s">
+        <v>86</v>
       </c>
       <c r="C77" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="28">
-        <v>1001303986689</v>
+        <v>1001300366807</v>
       </c>
       <c r="E77" s="24"/>
-      <c r="F77" s="23">
-        <v>0.35</v>
-      </c>
+      <c r="F77" s="23"/>
       <c r="G77" s="23">
-        <f>E77*0.35</f>
+        <f>E77*0.33</f>
         <v>0</v>
       </c>
-      <c r="H77" s="14">
-        <v>2.8</v>
-      </c>
-      <c r="I77" s="14">
-        <v>45</v>
-      </c>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
       <c r="J77" s="39"/>
     </row>
-    <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="94" t="str">
-        <f>RIGHT(D78:D188,4)</f>
-        <v>6791</v>
-      </c>
-      <c r="B78" s="64" t="s">
-        <v>92</v>
+        <f>RIGHT(D78:D198,4)</f>
+        <v>6684</v>
+      </c>
+      <c r="B78" s="27" t="s">
+        <v>87</v>
       </c>
       <c r="C78" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="28">
-        <v>1001304096791</v>
+        <v>1001304506684</v>
       </c>
       <c r="E78" s="24"/>
-      <c r="F78" s="23"/>
+      <c r="F78" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G78" s="23">
-        <f>E78*0.33</f>
+        <f>E78*0.28</f>
         <v>0</v>
       </c>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
+      <c r="H78" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I78" s="14">
+        <v>45</v>
+      </c>
       <c r="J78" s="39"/>
     </row>
-    <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="94" t="str">
-        <f>RIGHT(D79:D189,4)</f>
-        <v>5341</v>
-      </c>
-      <c r="B79" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="C79" s="30" t="s">
+        <f>RIGHT(D79:D200,4)</f>
+        <v>6787</v>
+      </c>
+      <c r="B79" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="28">
+        <v>1001300456787</v>
+      </c>
+      <c r="E79" s="24"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23">
+        <f>E79*0.33</f>
+        <v>0</v>
+      </c>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="39"/>
+    </row>
+    <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="94" t="str">
+        <f>RIGHT(D80:D201,4)</f>
+        <v>6788</v>
+      </c>
+      <c r="B80" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D79" s="28">
-        <v>1001053985341</v>
-      </c>
-      <c r="E79" s="24"/>
-      <c r="F79" s="23">
-        <v>0.71250000000000002</v>
-      </c>
-      <c r="G79" s="23">
-        <f>E79*1</f>
-        <v>0</v>
-      </c>
-      <c r="H79" s="14">
-        <v>5.7</v>
-      </c>
-      <c r="I79" s="14">
-        <v>45</v>
-      </c>
-      <c r="J79" s="39"/>
-    </row>
-    <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="94" t="str">
-        <f>RIGHT(D80:D190,4)</f>
-        <v>6459</v>
-      </c>
-      <c r="B80" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="C80" s="33" t="s">
-        <v>25</v>
-      </c>
       <c r="D80" s="28">
-        <v>1001214196459</v>
+        <v>1001300456788</v>
       </c>
       <c r="E80" s="24"/>
-      <c r="F80" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F80" s="23"/>
       <c r="G80" s="23">
-        <f>E80*F80</f>
+        <f>E80*1</f>
         <v>0</v>
       </c>
       <c r="H80" s="14"/>
@@ -3777,22 +3803,22 @@
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="94" t="str">
-        <f>RIGHT(D81:D191,4)</f>
-        <v>6586</v>
-      </c>
-      <c r="B81" s="64" t="s">
-        <v>95</v>
+        <f>RIGHT(D81:D202,4)</f>
+        <v>6790</v>
+      </c>
+      <c r="B81" s="27" t="s">
+        <v>90</v>
       </c>
       <c r="C81" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D81" s="28">
-        <v>1001215576586</v>
+        <v>1001300366790</v>
       </c>
       <c r="E81" s="24"/>
       <c r="F81" s="23"/>
       <c r="G81" s="23">
-        <f>E81*0.09</f>
+        <f>E81*1</f>
         <v>0</v>
       </c>
       <c r="H81" s="14"/>
@@ -3801,357 +3827,347 @@
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="94" t="str">
-        <f>RIGHT(D82:D189,4)</f>
-        <v>6228</v>
+        <f>RIGHT(D82:D201,4)</f>
+        <v>6689</v>
       </c>
       <c r="B82" s="64" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C82" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="28">
-        <v>1001225416228</v>
+        <v>1001303986689</v>
       </c>
       <c r="E82" s="24"/>
-      <c r="F82" s="23"/>
+      <c r="F82" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G82" s="23">
-        <f>E82*0.09</f>
+        <f>E82*0.35</f>
         <v>0</v>
       </c>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
+      <c r="H82" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="I82" s="14">
+        <v>45</v>
+      </c>
       <c r="J82" s="39"/>
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="94" t="str">
-        <f>RIGHT(D83:D189,4)</f>
-        <v>5544</v>
-      </c>
-      <c r="B83" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="C83" s="30" t="s">
+        <f>RIGHT(D83:D202,4)</f>
+        <v>6791</v>
+      </c>
+      <c r="B83" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" s="28">
+        <v>1001304096791</v>
+      </c>
+      <c r="E83" s="24"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23">
+        <f>E83*0.33</f>
+        <v>0</v>
+      </c>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="39"/>
+    </row>
+    <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="94" t="str">
+        <f>RIGHT(D84:D203,4)</f>
+        <v>5341</v>
+      </c>
+      <c r="B84" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="C84" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D83" s="28">
-        <v>1001051875544</v>
-      </c>
-      <c r="E83" s="24"/>
-      <c r="F83" s="23">
-        <v>0.85</v>
-      </c>
-      <c r="G83" s="23">
-        <f>E83*1</f>
-        <v>0</v>
-      </c>
-      <c r="H83" s="14">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I83" s="14">
-        <v>45</v>
-      </c>
-      <c r="J83" s="39"/>
-    </row>
-    <row r="84" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="94" t="str">
-        <f t="shared" ref="A84:A89" si="1">RIGHT(D84:D191,4)</f>
-        <v>6697</v>
-      </c>
-      <c r="B84" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C84" s="36" t="s">
-        <v>25</v>
-      </c>
       <c r="D84" s="28">
-        <v>1001301876697</v>
+        <v>1001053985341</v>
       </c>
       <c r="E84" s="24"/>
       <c r="F84" s="23">
-        <v>0.35</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="G84" s="23">
-        <f>E84*0.35</f>
+        <f>E84*1</f>
         <v>0</v>
       </c>
       <c r="H84" s="14">
-        <v>2.8</v>
+        <v>5.7</v>
       </c>
       <c r="I84" s="14">
         <v>45</v>
       </c>
       <c r="J84" s="39"/>
     </row>
-    <row r="85" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B85" s="74" t="s">
-        <v>99</v>
-      </c>
-      <c r="C85" s="74"/>
-      <c r="D85" s="74"/>
-      <c r="E85" s="74"/>
-      <c r="F85" s="73"/>
-      <c r="G85" s="74"/>
-      <c r="H85" s="74"/>
-      <c r="I85" s="74"/>
-      <c r="J85" s="75"/>
-    </row>
-    <row r="86" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D85:D204,4)</f>
+        <v>6459</v>
+      </c>
+      <c r="B85" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" s="28">
+        <v>1001214196459</v>
+      </c>
+      <c r="E85" s="24"/>
+      <c r="F85" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G85" s="23">
+        <f>E85*F85</f>
+        <v>0</v>
+      </c>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="39"/>
+    </row>
+    <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>5706</v>
-      </c>
-      <c r="B86" s="27" t="s">
-        <v>100</v>
+        <f>RIGHT(D86:D205,4)</f>
+        <v>6586</v>
+      </c>
+      <c r="B86" s="64" t="s">
+        <v>95</v>
       </c>
       <c r="C86" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="28">
-        <v>1001061975706</v>
+        <v>1001215576586</v>
       </c>
       <c r="E86" s="24"/>
-      <c r="F86" s="23">
-        <v>0.25</v>
-      </c>
+      <c r="F86" s="23"/>
       <c r="G86" s="23">
-        <f>E86*0.25</f>
+        <f>E86*0.09</f>
         <v>0</v>
       </c>
-      <c r="H86" s="14">
-        <v>2</v>
-      </c>
-      <c r="I86" s="14">
-        <v>120</v>
-      </c>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
       <c r="J86" s="39"/>
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>6454</v>
-      </c>
-      <c r="B87" s="27" t="s">
-        <v>101</v>
+        <f>RIGHT(D87:D203,4)</f>
+        <v>6228</v>
+      </c>
+      <c r="B87" s="64" t="s">
+        <v>96</v>
       </c>
       <c r="C87" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="28">
-        <v>1001201976454</v>
+        <v>1001225416228</v>
       </c>
       <c r="E87" s="24"/>
-      <c r="F87" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F87" s="23"/>
       <c r="G87" s="23">
-        <f>E87*0.1</f>
+        <f>E87*0.09</f>
         <v>0</v>
       </c>
-      <c r="H87" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="I87" s="14">
-        <v>60</v>
-      </c>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
       <c r="J87" s="39"/>
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>6222</v>
+        <f>RIGHT(D88:D203,4)</f>
+        <v>5544</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C88" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C88" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88" s="28">
+        <v>1001051875544</v>
+      </c>
+      <c r="E88" s="24"/>
+      <c r="F88" s="23">
+        <v>0.85</v>
+      </c>
+      <c r="G88" s="23">
+        <f>E88*1</f>
+        <v>0</v>
+      </c>
+      <c r="H88" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I88" s="14">
+        <v>45</v>
+      </c>
+      <c r="J88" s="39"/>
+    </row>
+    <row r="89" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="94" t="str">
+        <f t="shared" ref="A89:A94" si="0">RIGHT(D89:D205,4)</f>
+        <v>6697</v>
+      </c>
+      <c r="B89" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C89" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D88" s="28">
-        <v>1001205386222</v>
-      </c>
-      <c r="E88" s="24"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23">
-        <f>E88*0.09</f>
-        <v>0</v>
-      </c>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="39"/>
-    </row>
-    <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>5931</v>
-      </c>
-      <c r="B89" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C89" s="33" t="s">
-        <v>25</v>
-      </c>
       <c r="D89" s="28">
-        <v>1001060755931</v>
+        <v>1001301876697</v>
       </c>
       <c r="E89" s="24"/>
       <c r="F89" s="23">
-        <v>0.22</v>
+        <v>0.35</v>
       </c>
       <c r="G89" s="23">
-        <f>E89*0.22</f>
+        <f>E89*0.35</f>
         <v>0</v>
       </c>
       <c r="H89" s="14">
-        <v>1.76</v>
+        <v>2.8</v>
       </c>
       <c r="I89" s="14">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="J89" s="39"/>
     </row>
-    <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="94" t="str">
-        <f>RIGHT(D90:D198,4)</f>
-        <v>5708</v>
-      </c>
-      <c r="B90" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C90" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D90" s="28">
-        <v>1001063145708</v>
-      </c>
-      <c r="E90" s="24"/>
-      <c r="F90" s="23">
-        <v>0.51249999999999996</v>
-      </c>
-      <c r="G90" s="23">
-        <f>E90*1</f>
-        <v>0</v>
-      </c>
-      <c r="H90" s="14">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I90" s="14">
-        <v>120</v>
-      </c>
-      <c r="J90" s="39"/>
-    </row>
-    <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B90" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90" s="74"/>
+      <c r="D90" s="74"/>
+      <c r="E90" s="74"/>
+      <c r="F90" s="73"/>
+      <c r="G90" s="74"/>
+      <c r="H90" s="74"/>
+      <c r="I90" s="74"/>
+      <c r="J90" s="75"/>
+    </row>
+    <row r="91" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="94" t="str">
-        <f>RIGHT(D91:D199,4)</f>
-        <v>6834</v>
+        <f t="shared" si="0"/>
+        <v>5706</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C91" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="28">
-        <v>1001203146834</v>
+        <v>1001061975706</v>
       </c>
       <c r="E91" s="24"/>
-      <c r="F91" s="23"/>
+      <c r="F91" s="23">
+        <v>0.25</v>
+      </c>
       <c r="G91" s="23">
-        <f>E91*0.1</f>
+        <f>E91*0.25</f>
         <v>0</v>
       </c>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
+      <c r="H91" s="14">
+        <v>2</v>
+      </c>
+      <c r="I91" s="14">
+        <v>120</v>
+      </c>
       <c r="J91" s="39"/>
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="94" t="str">
-        <f>RIGHT(D92:D203,4)</f>
-        <v>4993</v>
+        <f t="shared" si="0"/>
+        <v>6454</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C92" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="28">
-        <v>1001060764993</v>
+        <v>1001201976454</v>
       </c>
       <c r="E92" s="24"/>
       <c r="F92" s="23">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="G92" s="23">
-        <f>E92*0.25</f>
+        <f>E92*0.1</f>
         <v>0</v>
       </c>
       <c r="H92" s="14">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="I92" s="14">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J92" s="39"/>
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="94" t="str">
-        <f>RIGHT(D93:D204,4)</f>
-        <v>5682</v>
+        <f t="shared" si="0"/>
+        <v>6222</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C93" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="28">
-        <v>1001193115682</v>
+        <v>1001205386222</v>
       </c>
       <c r="E93" s="24"/>
-      <c r="F93" s="23">
-        <v>0.12</v>
-      </c>
+      <c r="F93" s="23"/>
       <c r="G93" s="23">
-        <f>E93*0.12</f>
+        <f>E93*0.09</f>
         <v>0</v>
       </c>
-      <c r="H93" s="14">
-        <v>0.96</v>
-      </c>
-      <c r="I93" s="14">
-        <v>60</v>
-      </c>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
       <c r="J93" s="39"/>
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="94" t="str">
-        <f>RIGHT(D94:D207,4)</f>
-        <v>4117</v>
+        <f t="shared" si="0"/>
+        <v>5931</v>
       </c>
       <c r="B94" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C94" s="30" t="s">
-        <v>23</v>
+        <v>103</v>
+      </c>
+      <c r="C94" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D94" s="28">
-        <v>1001062504117</v>
+        <v>1001060755931</v>
       </c>
       <c r="E94" s="24"/>
       <c r="F94" s="23">
-        <v>0.48749999999999999</v>
+        <v>0.22</v>
       </c>
       <c r="G94" s="23">
-        <f>E94*1</f>
+        <f>E94*0.22</f>
         <v>0</v>
       </c>
       <c r="H94" s="14">
-        <v>3.9</v>
+        <v>1.76</v>
       </c>
       <c r="I94" s="14">
         <v>120</v>
@@ -4160,122 +4176,129 @@
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="94" t="str">
-        <f>RIGHT(D95:D208,4)</f>
-        <v>5483</v>
+        <f>RIGHT(D95:D212,4)</f>
+        <v>5708</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C95" s="33" t="s">
-        <v>25</v>
+        <v>104</v>
+      </c>
+      <c r="C95" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D95" s="28">
-        <v>1001062505483</v>
+        <v>1001063145708</v>
       </c>
       <c r="E95" s="24"/>
       <c r="F95" s="23">
-        <v>0.25</v>
+        <v>0.51249999999999996</v>
       </c>
       <c r="G95" s="23">
-        <f>E95*0.25</f>
+        <f>E95*1</f>
         <v>0</v>
       </c>
       <c r="H95" s="14">
-        <v>2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I95" s="14">
         <v>120</v>
       </c>
       <c r="J95" s="39"/>
     </row>
-    <row r="96" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="94" t="str">
-        <f>RIGHT(D96:D209,4)</f>
-        <v>6453</v>
+        <f>RIGHT(D96:D213,4)</f>
+        <v>6834</v>
       </c>
       <c r="B96" s="27" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C96" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="28">
-        <v>1001202506453</v>
+        <v>1001203146834</v>
       </c>
       <c r="E96" s="24"/>
-      <c r="F96" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F96" s="23"/>
       <c r="G96" s="23">
         <f>E96*0.1</f>
         <v>0</v>
       </c>
-      <c r="H96" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="I96" s="14">
-        <v>60</v>
-      </c>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
       <c r="J96" s="39"/>
     </row>
-    <row r="97" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="94" t="str">
-        <f>RIGHT(D97:D210,4)</f>
-        <v/>
-      </c>
-      <c r="B97" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="C97" s="74"/>
-      <c r="D97" s="74"/>
-      <c r="E97" s="74"/>
-      <c r="F97" s="73"/>
-      <c r="G97" s="74"/>
-      <c r="H97" s="74"/>
-      <c r="I97" s="74"/>
-      <c r="J97" s="75"/>
-    </row>
-    <row r="98" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D97:D214,4)</f>
+        <v>6448</v>
+      </c>
+      <c r="B97" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C97" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" s="28">
+        <v>1001234146448</v>
+      </c>
+      <c r="E97" s="24"/>
+      <c r="F97" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G97" s="23">
+        <f>F97*E97</f>
+        <v>0</v>
+      </c>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="39"/>
+      <c r="K97" s="82"/>
+    </row>
+    <row r="98" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="94" t="str">
-        <f>RIGHT(D98:D214,4)</f>
-        <v>6470</v>
-      </c>
-      <c r="B98" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C98" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D98" s="80">
-        <v>1001092436470</v>
+        <f>RIGHT(D98:D215,4)</f>
+        <v>6921</v>
+      </c>
+      <c r="B98" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="C98" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" s="28">
+        <v>1001223296921</v>
       </c>
       <c r="E98" s="24"/>
-      <c r="F98" s="23"/>
+      <c r="F98" s="23">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="G98" s="23">
-        <f>E98*1</f>
+        <f>F98*E98</f>
         <v>0</v>
       </c>
       <c r="H98" s="14"/>
       <c r="I98" s="14"/>
       <c r="J98" s="39"/>
-    </row>
-    <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K98" s="82"/>
+    </row>
+    <row r="99" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="94" t="str">
         <f>RIGHT(D99:D215,4)</f>
-        <v>6495</v>
-      </c>
-      <c r="B99" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="C99" s="32" t="s">
+        <v>5679</v>
+      </c>
+      <c r="B99" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C99" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D99" s="80">
-        <v>1001092436495</v>
+      <c r="D99" s="28">
+        <v>1001190765679</v>
       </c>
       <c r="E99" s="24"/>
       <c r="F99" s="23">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="G99" s="23">
         <f>F99*E99</f>
@@ -4284,156 +4307,192 @@
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
       <c r="J99" s="39"/>
-    </row>
-    <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K99" s="82"/>
+    </row>
+    <row r="100" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="94" t="str">
-        <f>RIGHT(D100:D215,4)</f>
-        <v>6865</v>
-      </c>
-      <c r="B100" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="C100" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D100" s="80">
-        <v>1001095716865</v>
+        <f>RIGHT(D100:D217,4)</f>
+        <v>4993</v>
+      </c>
+      <c r="B100" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C100" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" s="28">
+        <v>1001060764993</v>
       </c>
       <c r="E100" s="24"/>
-      <c r="F100" s="23"/>
+      <c r="F100" s="23">
+        <v>0.25</v>
+      </c>
       <c r="G100" s="23">
-        <f>E100*1</f>
+        <f>E100*0.25</f>
         <v>0</v>
       </c>
-      <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
+      <c r="H100" s="14">
+        <v>2</v>
+      </c>
+      <c r="I100" s="14">
+        <v>120</v>
+      </c>
       <c r="J100" s="39"/>
     </row>
-    <row r="101" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="94" t="str">
-        <f>RIGHT(D101:D212,4)</f>
-        <v>3215</v>
+        <f>RIGHT(D101:D218,4)</f>
+        <v>3684</v>
       </c>
       <c r="B101" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C101" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="C101" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D101" s="51">
-        <v>1001094053215</v>
+      <c r="D101" s="28">
+        <v>1001062353684</v>
       </c>
       <c r="E101" s="24"/>
       <c r="F101" s="23">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="G101" s="23">
-        <f>E101*0.4</f>
+        <f>F101*E101</f>
         <v>0</v>
       </c>
-      <c r="H101" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I101" s="14">
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="39"/>
+      <c r="K101" s="82"/>
+    </row>
+    <row r="102" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="94" t="str">
+        <f>RIGHT(D102:D218,4)</f>
+        <v>5682</v>
+      </c>
+      <c r="B102" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" s="28">
+        <v>1001193115682</v>
+      </c>
+      <c r="E102" s="24"/>
+      <c r="F102" s="23">
+        <v>0.12</v>
+      </c>
+      <c r="G102" s="23">
+        <f>E102*0.12</f>
+        <v>0</v>
+      </c>
+      <c r="H102" s="14">
+        <v>0.96</v>
+      </c>
+      <c r="I102" s="14">
         <v>60</v>
       </c>
-      <c r="J101" s="39"/>
-    </row>
-    <row r="102" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="94" t="str">
-        <f>RIGHT(D102:D215,4)</f>
-        <v/>
-      </c>
-      <c r="B102" s="74" t="s">
-        <v>116</v>
-      </c>
-      <c r="C102" s="74"/>
-      <c r="D102" s="74"/>
-      <c r="E102" s="74"/>
-      <c r="F102" s="73"/>
-      <c r="G102" s="74"/>
-      <c r="H102" s="74"/>
-      <c r="I102" s="74"/>
-      <c r="J102" s="75"/>
-    </row>
-    <row r="103" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J102" s="39"/>
+    </row>
+    <row r="103" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="94" t="str">
-        <f>RIGHT(D103:D218,4)</f>
-        <v>6206</v>
-      </c>
-      <c r="B103" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="C103" s="35" t="s">
-        <v>25</v>
+        <f>RIGHT(D103:D221,4)</f>
+        <v>4117</v>
+      </c>
+      <c r="B103" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D103" s="28">
-        <v>1001084216206</v>
+        <v>1001062504117</v>
       </c>
       <c r="E103" s="24"/>
       <c r="F103" s="23">
-        <v>0.3</v>
+        <v>0.48749999999999999</v>
       </c>
       <c r="G103" s="23">
-        <f>E103*0.3</f>
+        <f>E103*1</f>
         <v>0</v>
       </c>
       <c r="H103" s="14">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="I103" s="14">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="J103" s="39"/>
     </row>
-    <row r="104" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="94" t="str">
-        <f>RIGHT(D104:D219,4)</f>
-        <v>6919</v>
-      </c>
-      <c r="B104" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="C104" s="35" t="s">
+        <f>RIGHT(D104:D222,4)</f>
+        <v>5483</v>
+      </c>
+      <c r="B104" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="28">
-        <v>1001223296919</v>
+        <v>1001062505483</v>
       </c>
       <c r="E104" s="24"/>
-      <c r="F104" s="23"/>
+      <c r="F104" s="23">
+        <v>0.25</v>
+      </c>
       <c r="G104" s="23">
-        <f>E104*0.18</f>
+        <f>E104*0.25</f>
         <v>0</v>
       </c>
-      <c r="H104" s="96"/>
-      <c r="I104" s="96"/>
-      <c r="J104" s="93"/>
-    </row>
-    <row r="105" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H104" s="14">
+        <v>2</v>
+      </c>
+      <c r="I104" s="14">
+        <v>120</v>
+      </c>
+      <c r="J104" s="39"/>
+    </row>
+    <row r="105" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="94" t="str">
-        <f>RIGHT(D105:D220,4)</f>
+        <f>RIGHT(D105:D223,4)</f>
+        <v>6453</v>
+      </c>
+      <c r="B105" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" s="28">
+        <v>1001202506453</v>
+      </c>
+      <c r="E105" s="24"/>
+      <c r="F105" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G105" s="23">
+        <f>E105*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="H105" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I105" s="14">
+        <v>60</v>
+      </c>
+      <c r="J105" s="39"/>
+    </row>
+    <row r="106" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="94" t="str">
+        <f>RIGHT(D106:D224,4)</f>
         <v/>
       </c>
-      <c r="B105" s="74" t="s">
-        <v>119</v>
-      </c>
-      <c r="C105" s="74"/>
-      <c r="D105" s="74"/>
-      <c r="E105" s="74"/>
-      <c r="F105" s="73"/>
-      <c r="G105" s="74"/>
-      <c r="H105" s="74"/>
-      <c r="I105" s="74"/>
-      <c r="J105" s="75"/>
-    </row>
-    <row r="106" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="94" t="str">
-        <f>RIGHT(D106:D223,4)</f>
-        <v/>
-      </c>
       <c r="B106" s="74" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C106" s="74"/>
       <c r="D106" s="74"/>
@@ -4444,121 +4503,117 @@
       <c r="I106" s="74"/>
       <c r="J106" s="75"/>
     </row>
-    <row r="107" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A107" s="94" t="str">
-        <f>RIGHT(D107:D224,4)</f>
-        <v>6314</v>
-      </c>
-      <c r="B107" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="C107" s="33" t="s">
+        <f>RIGHT(D107:D228,4)</f>
+        <v>6470</v>
+      </c>
+      <c r="B107" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C107" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D107" s="80">
+        <v>1001092436470</v>
+      </c>
+      <c r="E107" s="24"/>
+      <c r="F107" s="23"/>
+      <c r="G107" s="23">
+        <f>E107*1</f>
+        <v>0</v>
+      </c>
+      <c r="H107" s="14"/>
+      <c r="I107" s="14"/>
+      <c r="J107" s="39"/>
+    </row>
+    <row r="108" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="94" t="str">
+        <f>RIGHT(D108:D229,4)</f>
+        <v>6495</v>
+      </c>
+      <c r="B108" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C108" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D107" s="28">
-        <v>1002112606314</v>
-      </c>
-      <c r="E107" s="24"/>
-      <c r="F107" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G107" s="23">
-        <f>E107*0.5</f>
+      <c r="D108" s="80">
+        <v>1001092436495</v>
+      </c>
+      <c r="E108" s="24"/>
+      <c r="F108" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="G108" s="23">
+        <f>F108*E108</f>
         <v>0</v>
       </c>
-      <c r="H107" s="14">
-        <v>8</v>
-      </c>
-      <c r="I107" s="72">
-        <v>120</v>
-      </c>
-      <c r="J107" s="39"/>
-    </row>
-    <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="94" t="str">
-        <f>RIGHT(D108:D225,4)</f>
-        <v>6155</v>
-      </c>
-      <c r="B108" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="C108" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D108" s="28">
-        <v>1002115036155</v>
-      </c>
-      <c r="E108" s="24"/>
-      <c r="F108" s="23"/>
-      <c r="G108" s="23">
-        <f>E108*0.45</f>
-        <v>0</v>
-      </c>
       <c r="H108" s="14"/>
-      <c r="I108" s="72"/>
+      <c r="I108" s="14"/>
       <c r="J108" s="39"/>
     </row>
-    <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="94" t="str">
-        <f>RIGHT(D109:D226,4)</f>
-        <v>6157</v>
-      </c>
-      <c r="B109" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="C109" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D109" s="28">
-        <v>1002115056157</v>
+        <f>RIGHT(D109:D229,4)</f>
+        <v>6865</v>
+      </c>
+      <c r="B109" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C109" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D109" s="80">
+        <v>1001095716865</v>
       </c>
       <c r="E109" s="24"/>
       <c r="F109" s="23"/>
       <c r="G109" s="23">
-        <f>E109*0.45</f>
+        <f>E109*1</f>
         <v>0</v>
       </c>
       <c r="H109" s="14"/>
-      <c r="I109" s="72"/>
+      <c r="I109" s="14"/>
       <c r="J109" s="39"/>
     </row>
-    <row r="110" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="94" t="str">
-        <f t="shared" ref="A110:A121" si="2">RIGHT(D110:D225,4)</f>
-        <v>6313</v>
-      </c>
-      <c r="B110" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="C110" s="36" t="s">
+        <f>RIGHT(D110:D226,4)</f>
+        <v>3215</v>
+      </c>
+      <c r="B110" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C110" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D110" s="28">
-        <v>1002112606313</v>
+      <c r="D110" s="51">
+        <v>1001094053215</v>
       </c>
       <c r="E110" s="24"/>
       <c r="F110" s="23">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="G110" s="23">
-        <f>E110*0.9</f>
+        <f>E110*0.4</f>
         <v>0</v>
       </c>
       <c r="H110" s="14">
-        <v>9</v>
-      </c>
-      <c r="I110" s="72">
-        <v>120</v>
+        <v>3.2</v>
+      </c>
+      <c r="I110" s="14">
+        <v>60</v>
       </c>
       <c r="J110" s="39"/>
     </row>
-    <row r="111" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="94" t="str">
-        <f t="shared" si="2"/>
+        <f>RIGHT(D111:D229,4)</f>
         <v/>
       </c>
       <c r="B111" s="74" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C111" s="74"/>
       <c r="D111" s="74"/>
@@ -4569,435 +4624,643 @@
       <c r="I111" s="74"/>
       <c r="J111" s="75"/>
     </row>
-    <row r="112" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A112" s="94" t="str">
-        <f t="shared" si="2"/>
-        <v>4945</v>
+        <f>RIGHT(D112:D232,4)</f>
+        <v>6206</v>
       </c>
       <c r="B112" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="C112" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C112" s="35" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="28">
-        <v>1002151784945</v>
+        <v>1001084216206</v>
       </c>
       <c r="E112" s="24"/>
       <c r="F112" s="23">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G112" s="23">
-        <f>E112*0.5</f>
+        <f>E112*0.3</f>
         <v>0</v>
       </c>
       <c r="H112" s="14">
-        <v>8</v>
-      </c>
-      <c r="I112" s="72">
-        <v>120</v>
+        <v>1.8</v>
+      </c>
+      <c r="I112" s="14">
+        <v>30</v>
       </c>
       <c r="J112" s="39"/>
     </row>
-    <row r="113" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="94" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="B113" s="74" t="s">
-        <v>127</v>
-      </c>
-      <c r="C113" s="74"/>
-      <c r="D113" s="74"/>
-      <c r="E113" s="74"/>
-      <c r="F113" s="73"/>
-      <c r="G113" s="74"/>
-      <c r="H113" s="74"/>
-      <c r="I113" s="74"/>
-      <c r="J113" s="75"/>
-    </row>
-    <row r="114" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f>RIGHT(D113:D233,4)</f>
+        <v>4691</v>
+      </c>
+      <c r="B113" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C113" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D113" s="28">
+        <v>1001083424691</v>
+      </c>
+      <c r="E113" s="24"/>
+      <c r="F113" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="G113" s="23">
+        <f>F113*E113</f>
+        <v>0</v>
+      </c>
+      <c r="H113" s="14"/>
+      <c r="I113" s="14"/>
+      <c r="J113" s="93"/>
+      <c r="K113" s="82"/>
+    </row>
+    <row r="114" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="94" t="str">
-        <f t="shared" si="2"/>
-        <v>4956</v>
-      </c>
-      <c r="B114" s="89" t="s">
-        <v>128</v>
-      </c>
-      <c r="C114" s="90" t="s">
+        <f>RIGHT(D114:D234,4)</f>
+        <v>6200</v>
+      </c>
+      <c r="B114" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="C114" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D114" s="83">
-        <v>1002133974956</v>
-      </c>
-      <c r="E114" s="84"/>
-      <c r="F114" s="85">
-        <v>0.42</v>
-      </c>
-      <c r="G114" s="85">
-        <f>E114*0.42</f>
+      <c r="D114" s="28">
+        <v>1001085636200</v>
+      </c>
+      <c r="E114" s="24"/>
+      <c r="F114" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="G114" s="23">
+        <f>F114*E114</f>
         <v>0</v>
       </c>
-      <c r="H114" s="86">
-        <v>4.2</v>
-      </c>
-      <c r="I114" s="91">
-        <v>120</v>
-      </c>
-      <c r="J114" s="86"/>
-      <c r="K114" s="87"/>
-    </row>
-    <row r="115" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H114" s="14"/>
+      <c r="I114" s="14"/>
+      <c r="J114" s="93"/>
+      <c r="K114" s="82"/>
+    </row>
+    <row r="115" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="94" t="str">
-        <f t="shared" si="2"/>
-        <v>1762</v>
+        <f>RIGHT(D115:D235,4)</f>
+        <v>6492</v>
       </c>
       <c r="B115" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="C115" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="C115" s="35" t="s">
         <v>25</v>
       </c>
       <c r="D115" s="28">
-        <v>1002131151762</v>
+        <v>1001084226492</v>
       </c>
       <c r="E115" s="24"/>
       <c r="F115" s="23">
-        <v>0.42</v>
+        <v>0.3</v>
       </c>
       <c r="G115" s="23">
-        <f>E115*0.42</f>
+        <f>F115*E115</f>
         <v>0</v>
       </c>
-      <c r="H115" s="14">
-        <v>4.2</v>
-      </c>
-      <c r="I115" s="72">
-        <v>120</v>
-      </c>
-      <c r="J115" s="39"/>
-    </row>
-    <row r="116" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H115" s="14"/>
+      <c r="I115" s="14"/>
+      <c r="J115" s="93"/>
+      <c r="K115" s="82"/>
+    </row>
+    <row r="116" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="94" t="str">
-        <f t="shared" si="2"/>
-        <v>1764</v>
+        <f>RIGHT(D116:D233,4)</f>
+        <v>6279</v>
       </c>
       <c r="B116" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="C116" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="C116" s="35" t="s">
         <v>25</v>
       </c>
       <c r="D116" s="28">
-        <v>1002131181764</v>
+        <v>1001220286279</v>
       </c>
       <c r="E116" s="24"/>
       <c r="F116" s="23">
-        <v>0.42</v>
+        <v>0.15</v>
       </c>
       <c r="G116" s="23">
-        <f>E116*0.42</f>
+        <f>F116*E116</f>
         <v>0</v>
       </c>
-      <c r="H116" s="14">
-        <v>4.2</v>
-      </c>
-      <c r="I116" s="72">
-        <v>120</v>
-      </c>
-      <c r="J116" s="39"/>
-    </row>
-    <row r="117" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H116" s="14"/>
+      <c r="I116" s="14"/>
+      <c r="J116" s="93"/>
+      <c r="K116" s="82"/>
+    </row>
+    <row r="117" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="94" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="B117" s="74" t="s">
-        <v>131</v>
-      </c>
-      <c r="C117" s="74"/>
-      <c r="D117" s="74"/>
-      <c r="E117" s="74"/>
-      <c r="F117" s="73"/>
-      <c r="G117" s="74"/>
-      <c r="H117" s="74"/>
-      <c r="I117" s="74"/>
-      <c r="J117" s="75"/>
-    </row>
-    <row r="118" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f>RIGHT(D117:D234,4)</f>
+        <v>4786</v>
+      </c>
+      <c r="B117" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="C117" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" s="28">
+        <v>1001053944786</v>
+      </c>
+      <c r="E117" s="24"/>
+      <c r="F117" s="23">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G117" s="23">
+        <f>F117*E117</f>
+        <v>0</v>
+      </c>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
+      <c r="J117" s="93"/>
+      <c r="K117" s="82"/>
+    </row>
+    <row r="118" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="94" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="B118" s="74" t="s">
-        <v>132</v>
-      </c>
-      <c r="C118" s="74"/>
-      <c r="D118" s="74"/>
-      <c r="E118" s="74"/>
-      <c r="F118" s="73"/>
-      <c r="G118" s="74"/>
-      <c r="H118" s="74"/>
-      <c r="I118" s="74"/>
-      <c r="J118" s="75"/>
+        <f>RIGHT(D118:D233,4)</f>
+        <v>6919</v>
+      </c>
+      <c r="B118" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D118" s="28">
+        <v>1001223296919</v>
+      </c>
+      <c r="E118" s="24"/>
+      <c r="F118" s="23"/>
+      <c r="G118" s="23">
+        <f>E118*0.18</f>
+        <v>0</v>
+      </c>
+      <c r="H118" s="14"/>
+      <c r="I118" s="14"/>
+      <c r="J118" s="93"/>
     </row>
     <row r="119" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="94" t="str">
-        <f t="shared" si="2"/>
-        <v>6004</v>
-      </c>
-      <c r="B119" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="C119" s="36" t="s">
+        <f>RIGHT(D119:D234,4)</f>
+        <v/>
+      </c>
+      <c r="B119" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="C119" s="74"/>
+      <c r="D119" s="74"/>
+      <c r="E119" s="74"/>
+      <c r="F119" s="73"/>
+      <c r="G119" s="74"/>
+      <c r="H119" s="74"/>
+      <c r="I119" s="74"/>
+      <c r="J119" s="75"/>
+    </row>
+    <row r="120" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="94" t="str">
+        <f>RIGHT(D120:D237,4)</f>
+        <v/>
+      </c>
+      <c r="B120" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="C120" s="74"/>
+      <c r="D120" s="74"/>
+      <c r="E120" s="74"/>
+      <c r="F120" s="73"/>
+      <c r="G120" s="74"/>
+      <c r="H120" s="74"/>
+      <c r="I120" s="74"/>
+      <c r="J120" s="75"/>
+    </row>
+    <row r="121" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="94" t="str">
+        <f>RIGHT(D121:D238,4)</f>
+        <v>6314</v>
+      </c>
+      <c r="B121" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="C121" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D119" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="E119" s="24"/>
-      <c r="F119" s="23">
-        <v>1</v>
-      </c>
-      <c r="G119" s="23">
-        <f>E119*1</f>
-        <v>0</v>
-      </c>
-      <c r="H119" s="14">
-        <v>8</v>
-      </c>
-      <c r="I119" s="72">
-        <v>120</v>
-      </c>
-      <c r="J119" s="39"/>
-    </row>
-    <row r="120" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="94" t="str">
-        <f t="shared" si="2"/>
-        <v>5417</v>
-      </c>
-      <c r="B120" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="C120" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D120" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="E120" s="24"/>
-      <c r="F120" s="23">
-        <v>2</v>
-      </c>
-      <c r="G120" s="23">
-        <f>E120*1</f>
-        <v>0</v>
-      </c>
-      <c r="H120" s="14">
-        <v>6</v>
-      </c>
-      <c r="I120" s="72">
-        <v>90</v>
-      </c>
-      <c r="J120" s="39"/>
-    </row>
-    <row r="121" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="94" t="str">
-        <f t="shared" si="2"/>
-        <v>6019</v>
-      </c>
-      <c r="B121" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="C121" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D121" s="69" t="s">
-        <v>138</v>
+      <c r="D121" s="28">
+        <v>1002112606314</v>
       </c>
       <c r="E121" s="24"/>
       <c r="F121" s="23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G121" s="23">
-        <f>E121*1</f>
+        <f>E121*0.5</f>
         <v>0</v>
       </c>
       <c r="H121" s="14">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I121" s="72">
         <v>120</v>
       </c>
       <c r="J121" s="39"/>
     </row>
-    <row r="122" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="77"/>
-      <c r="B122" s="77" t="s">
+    <row r="122" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="94" t="str">
+        <f>RIGHT(D122:D239,4)</f>
+        <v>6155</v>
+      </c>
+      <c r="B122" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D122" s="28">
+        <v>1002115036155</v>
+      </c>
+      <c r="E122" s="24"/>
+      <c r="F122" s="23"/>
+      <c r="G122" s="23">
+        <f>E122*0.45</f>
+        <v>0</v>
+      </c>
+      <c r="H122" s="14"/>
+      <c r="I122" s="72"/>
+      <c r="J122" s="39"/>
+    </row>
+    <row r="123" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="94" t="str">
+        <f>RIGHT(D123:D240,4)</f>
+        <v>6157</v>
+      </c>
+      <c r="B123" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D123" s="28">
+        <v>1002115056157</v>
+      </c>
+      <c r="E123" s="24"/>
+      <c r="F123" s="23"/>
+      <c r="G123" s="23">
+        <f>E123*0.45</f>
+        <v>0</v>
+      </c>
+      <c r="H123" s="14"/>
+      <c r="I123" s="72"/>
+      <c r="J123" s="39"/>
+    </row>
+    <row r="124" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="94" t="str">
+        <f t="shared" ref="A124:A135" si="1">RIGHT(D124:D239,4)</f>
+        <v>6313</v>
+      </c>
+      <c r="B124" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="C124" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D124" s="28">
+        <v>1002112606313</v>
+      </c>
+      <c r="E124" s="24"/>
+      <c r="F124" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="G124" s="23">
+        <f>E124*0.9</f>
+        <v>0</v>
+      </c>
+      <c r="H124" s="14">
+        <v>9</v>
+      </c>
+      <c r="I124" s="72">
+        <v>120</v>
+      </c>
+      <c r="J124" s="39"/>
+    </row>
+    <row r="125" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="94" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B125" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="C125" s="74"/>
+      <c r="D125" s="74"/>
+      <c r="E125" s="74"/>
+      <c r="F125" s="73"/>
+      <c r="G125" s="74"/>
+      <c r="H125" s="74"/>
+      <c r="I125" s="74"/>
+      <c r="J125" s="75"/>
+    </row>
+    <row r="126" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="94" t="str">
+        <f t="shared" si="1"/>
+        <v>4945</v>
+      </c>
+      <c r="B126" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D126" s="28">
+        <v>1002151784945</v>
+      </c>
+      <c r="E126" s="24"/>
+      <c r="F126" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G126" s="23">
+        <f>E126*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H126" s="14">
+        <v>8</v>
+      </c>
+      <c r="I126" s="72">
+        <v>120</v>
+      </c>
+      <c r="J126" s="39"/>
+    </row>
+    <row r="127" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="94" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B127" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127" s="74"/>
+      <c r="D127" s="74"/>
+      <c r="E127" s="74"/>
+      <c r="F127" s="73"/>
+      <c r="G127" s="74"/>
+      <c r="H127" s="74"/>
+      <c r="I127" s="74"/>
+      <c r="J127" s="75"/>
+    </row>
+    <row r="128" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="94" t="str">
+        <f t="shared" si="1"/>
+        <v>4956</v>
+      </c>
+      <c r="B128" s="89" t="s">
+        <v>128</v>
+      </c>
+      <c r="C128" s="90" t="s">
+        <v>25</v>
+      </c>
+      <c r="D128" s="83">
+        <v>1002133974956</v>
+      </c>
+      <c r="E128" s="84"/>
+      <c r="F128" s="85">
+        <v>0.42</v>
+      </c>
+      <c r="G128" s="85">
+        <f>E128*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H128" s="86">
+        <v>4.2</v>
+      </c>
+      <c r="I128" s="91">
+        <v>120</v>
+      </c>
+      <c r="J128" s="86"/>
+      <c r="K128" s="87"/>
+    </row>
+    <row r="129" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="94" t="str">
+        <f t="shared" si="1"/>
+        <v>1762</v>
+      </c>
+      <c r="B129" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C129" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D129" s="28">
+        <v>1002131151762</v>
+      </c>
+      <c r="E129" s="24"/>
+      <c r="F129" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G129" s="23">
+        <f>E129*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H129" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I129" s="72">
+        <v>120</v>
+      </c>
+      <c r="J129" s="39"/>
+    </row>
+    <row r="130" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="94" t="str">
+        <f t="shared" si="1"/>
+        <v>1764</v>
+      </c>
+      <c r="B130" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C130" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D130" s="28">
+        <v>1002131181764</v>
+      </c>
+      <c r="E130" s="24"/>
+      <c r="F130" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G130" s="23">
+        <f>E130*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H130" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I130" s="72">
+        <v>120</v>
+      </c>
+      <c r="J130" s="39"/>
+    </row>
+    <row r="131" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="94" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B131" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="C131" s="74"/>
+      <c r="D131" s="74"/>
+      <c r="E131" s="74"/>
+      <c r="F131" s="73"/>
+      <c r="G131" s="74"/>
+      <c r="H131" s="74"/>
+      <c r="I131" s="74"/>
+      <c r="J131" s="75"/>
+    </row>
+    <row r="132" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="94" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B132" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="C132" s="74"/>
+      <c r="D132" s="74"/>
+      <c r="E132" s="74"/>
+      <c r="F132" s="73"/>
+      <c r="G132" s="74"/>
+      <c r="H132" s="74"/>
+      <c r="I132" s="74"/>
+      <c r="J132" s="75"/>
+    </row>
+    <row r="133" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="94" t="str">
+        <f t="shared" si="1"/>
+        <v>6004</v>
+      </c>
+      <c r="B133" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C133" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D133" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="E133" s="24"/>
+      <c r="F133" s="23">
+        <v>1</v>
+      </c>
+      <c r="G133" s="23">
+        <f>E133*1</f>
+        <v>0</v>
+      </c>
+      <c r="H133" s="14">
+        <v>8</v>
+      </c>
+      <c r="I133" s="72">
+        <v>120</v>
+      </c>
+      <c r="J133" s="39"/>
+    </row>
+    <row r="134" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="94" t="str">
+        <f t="shared" si="1"/>
+        <v>5417</v>
+      </c>
+      <c r="B134" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="C134" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D134" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="E134" s="24"/>
+      <c r="F134" s="23">
+        <v>2</v>
+      </c>
+      <c r="G134" s="23">
+        <f>E134*1</f>
+        <v>0</v>
+      </c>
+      <c r="H134" s="14">
+        <v>6</v>
+      </c>
+      <c r="I134" s="72">
+        <v>90</v>
+      </c>
+      <c r="J134" s="39"/>
+    </row>
+    <row r="135" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="94" t="str">
+        <f t="shared" si="1"/>
+        <v>6019</v>
+      </c>
+      <c r="B135" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C135" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D135" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="E135" s="24"/>
+      <c r="F135" s="23">
+        <v>1</v>
+      </c>
+      <c r="G135" s="23">
+        <f>E135*1</f>
+        <v>0</v>
+      </c>
+      <c r="H135" s="14">
+        <v>12</v>
+      </c>
+      <c r="I135" s="72">
+        <v>120</v>
+      </c>
+      <c r="J135" s="39"/>
+    </row>
+    <row r="136" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="77"/>
+      <c r="B136" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="C122" s="16"/>
-      <c r="D122" s="48"/>
-      <c r="E122" s="17">
-        <f>SUM(E5:E121)</f>
+      <c r="C136" s="16"/>
+      <c r="D136" s="48"/>
+      <c r="E136" s="17">
+        <f>SUM(E5:E135)</f>
         <v>0</v>
       </c>
-      <c r="F122" s="17">
-        <f>SUM(F10:F121)</f>
-        <v>35.744166666666672</v>
-      </c>
-      <c r="G122" s="17">
-        <f>SUM(G11:G121)</f>
+      <c r="F136" s="17">
+        <f>SUM(F10:F135)</f>
+        <v>38.744166666666679</v>
+      </c>
+      <c r="G136" s="17">
+        <f>SUM(G11:G135)</f>
         <v>0</v>
       </c>
-      <c r="H122" s="17">
-        <f>SUM(H10:H118)</f>
+      <c r="H136" s="17">
+        <f>SUM(H10:H132)</f>
         <v>154.69999999999993</v>
       </c>
-      <c r="I122" s="17"/>
-      <c r="J122" s="17"/>
-    </row>
-    <row r="123" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="53"/>
-      <c r="C123" s="18"/>
-      <c r="D123" s="52"/>
-      <c r="F123" s="19"/>
-      <c r="G123" s="19"/>
-      <c r="H123" s="20"/>
-      <c r="I123" s="20"/>
-      <c r="J123" s="21"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B124" s="53"/>
-      <c r="C124" s="18"/>
-      <c r="D124" s="52"/>
-      <c r="F124" s="19"/>
-      <c r="G124" s="19"/>
-      <c r="H124" s="20"/>
-      <c r="I124" s="20"/>
-      <c r="J124" s="21"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B125" s="53"/>
-      <c r="C125" s="18"/>
-      <c r="D125" s="52"/>
-      <c r="F125" s="19"/>
-      <c r="G125" s="19"/>
-      <c r="H125" s="20"/>
-      <c r="I125" s="20"/>
-      <c r="J125" s="21"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B126" s="53"/>
-      <c r="C126" s="18"/>
-      <c r="D126" s="52"/>
-      <c r="F126" s="19"/>
-      <c r="G126" s="19"/>
-      <c r="H126" s="20"/>
-      <c r="I126" s="20"/>
-      <c r="J126" s="21"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B127" s="53"/>
-      <c r="C127" s="18"/>
-      <c r="D127" s="52"/>
-      <c r="F127" s="19"/>
-      <c r="G127" s="19"/>
-      <c r="H127" s="20"/>
-      <c r="I127" s="20"/>
-      <c r="J127" s="21"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B128" s="53"/>
-      <c r="C128" s="18"/>
-      <c r="D128" s="52"/>
-      <c r="F128" s="19"/>
-      <c r="G128" s="19"/>
-      <c r="H128" s="20"/>
-      <c r="I128" s="20"/>
-      <c r="J128" s="21"/>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B129" s="53"/>
-      <c r="C129" s="18"/>
-      <c r="D129" s="52"/>
-      <c r="F129" s="19"/>
-      <c r="G129" s="19"/>
-      <c r="H129" s="20"/>
-      <c r="I129" s="20"/>
-      <c r="J129" s="21"/>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B130" s="53"/>
-      <c r="C130" s="18"/>
-      <c r="D130" s="52"/>
-      <c r="F130" s="19"/>
-      <c r="G130" s="19"/>
-      <c r="H130" s="20"/>
-      <c r="I130" s="20"/>
-      <c r="J130" s="21"/>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B131" s="53"/>
-      <c r="C131" s="18"/>
-      <c r="D131" s="52"/>
-      <c r="F131" s="19"/>
-      <c r="G131" s="19"/>
-      <c r="H131" s="20"/>
-      <c r="I131" s="20"/>
-      <c r="J131" s="21"/>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B132" s="53"/>
-      <c r="C132" s="18"/>
-      <c r="D132" s="52"/>
-      <c r="F132" s="19"/>
-      <c r="G132" s="19"/>
-      <c r="H132" s="20"/>
-      <c r="I132" s="20"/>
-      <c r="J132" s="21"/>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B133" s="53"/>
-      <c r="C133" s="18"/>
-      <c r="D133" s="52"/>
-      <c r="F133" s="19"/>
-      <c r="G133" s="19"/>
-      <c r="H133" s="20"/>
-      <c r="I133" s="20"/>
-      <c r="J133" s="21"/>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B134" s="53"/>
-      <c r="C134" s="18"/>
-      <c r="D134" s="52"/>
-      <c r="F134" s="19"/>
-      <c r="G134" s="19"/>
-      <c r="H134" s="20"/>
-      <c r="I134" s="20"/>
-      <c r="J134" s="21"/>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B135" s="53"/>
-      <c r="C135" s="18"/>
-      <c r="D135" s="52"/>
-      <c r="F135" s="19"/>
-      <c r="G135" s="19"/>
-      <c r="H135" s="20"/>
-      <c r="I135" s="20"/>
-      <c r="J135" s="21"/>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B136" s="53"/>
-      <c r="C136" s="18"/>
-      <c r="D136" s="52"/>
-      <c r="F136" s="19"/>
-      <c r="G136" s="19"/>
-      <c r="H136" s="20"/>
-      <c r="I136" s="20"/>
-      <c r="J136" s="21"/>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I136" s="17"/>
+      <c r="J136" s="17"/>
+    </row>
+    <row r="137" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B137" s="53"/>
       <c r="C137" s="18"/>
       <c r="D137" s="52"/>
@@ -5007,7 +5270,7 @@
       <c r="I137" s="20"/>
       <c r="J137" s="21"/>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B138" s="53"/>
       <c r="C138" s="18"/>
       <c r="D138" s="52"/>
@@ -5017,7 +5280,7 @@
       <c r="I138" s="20"/>
       <c r="J138" s="21"/>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B139" s="53"/>
       <c r="C139" s="18"/>
       <c r="D139" s="52"/>
@@ -5027,7 +5290,7 @@
       <c r="I139" s="20"/>
       <c r="J139" s="21"/>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B140" s="53"/>
       <c r="C140" s="18"/>
       <c r="D140" s="52"/>
@@ -5037,7 +5300,7 @@
       <c r="I140" s="20"/>
       <c r="J140" s="21"/>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B141" s="53"/>
       <c r="C141" s="18"/>
       <c r="D141" s="52"/>
@@ -5047,7 +5310,7 @@
       <c r="I141" s="20"/>
       <c r="J141" s="21"/>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B142" s="53"/>
       <c r="C142" s="18"/>
       <c r="D142" s="52"/>
@@ -5057,7 +5320,7 @@
       <c r="I142" s="20"/>
       <c r="J142" s="21"/>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B143" s="53"/>
       <c r="C143" s="18"/>
       <c r="D143" s="52"/>
@@ -5067,7 +5330,7 @@
       <c r="I143" s="20"/>
       <c r="J143" s="21"/>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B144" s="53"/>
       <c r="C144" s="18"/>
       <c r="D144" s="52"/>
@@ -20097,17 +20360,157 @@
       <c r="I1646" s="20"/>
       <c r="J1646" s="21"/>
     </row>
+    <row r="1647" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1647" s="53"/>
+      <c r="C1647" s="18"/>
+      <c r="D1647" s="52"/>
+      <c r="F1647" s="19"/>
+      <c r="G1647" s="19"/>
+      <c r="H1647" s="20"/>
+      <c r="I1647" s="20"/>
+      <c r="J1647" s="21"/>
+    </row>
+    <row r="1648" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1648" s="53"/>
+      <c r="C1648" s="18"/>
+      <c r="D1648" s="52"/>
+      <c r="F1648" s="19"/>
+      <c r="G1648" s="19"/>
+      <c r="H1648" s="20"/>
+      <c r="I1648" s="20"/>
+      <c r="J1648" s="21"/>
+    </row>
+    <row r="1649" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1649" s="53"/>
+      <c r="C1649" s="18"/>
+      <c r="D1649" s="52"/>
+      <c r="F1649" s="19"/>
+      <c r="G1649" s="19"/>
+      <c r="H1649" s="20"/>
+      <c r="I1649" s="20"/>
+      <c r="J1649" s="21"/>
+    </row>
+    <row r="1650" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1650" s="53"/>
+      <c r="C1650" s="18"/>
+      <c r="D1650" s="52"/>
+      <c r="F1650" s="19"/>
+      <c r="G1650" s="19"/>
+      <c r="H1650" s="20"/>
+      <c r="I1650" s="20"/>
+      <c r="J1650" s="21"/>
+    </row>
+    <row r="1651" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1651" s="53"/>
+      <c r="C1651" s="18"/>
+      <c r="D1651" s="52"/>
+      <c r="F1651" s="19"/>
+      <c r="G1651" s="19"/>
+      <c r="H1651" s="20"/>
+      <c r="I1651" s="20"/>
+      <c r="J1651" s="21"/>
+    </row>
+    <row r="1652" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1652" s="53"/>
+      <c r="C1652" s="18"/>
+      <c r="D1652" s="52"/>
+      <c r="F1652" s="19"/>
+      <c r="G1652" s="19"/>
+      <c r="H1652" s="20"/>
+      <c r="I1652" s="20"/>
+      <c r="J1652" s="21"/>
+    </row>
+    <row r="1653" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1653" s="53"/>
+      <c r="C1653" s="18"/>
+      <c r="D1653" s="52"/>
+      <c r="F1653" s="19"/>
+      <c r="G1653" s="19"/>
+      <c r="H1653" s="20"/>
+      <c r="I1653" s="20"/>
+      <c r="J1653" s="21"/>
+    </row>
+    <row r="1654" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1654" s="53"/>
+      <c r="C1654" s="18"/>
+      <c r="D1654" s="52"/>
+      <c r="F1654" s="19"/>
+      <c r="G1654" s="19"/>
+      <c r="H1654" s="20"/>
+      <c r="I1654" s="20"/>
+      <c r="J1654" s="21"/>
+    </row>
+    <row r="1655" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1655" s="53"/>
+      <c r="C1655" s="18"/>
+      <c r="D1655" s="52"/>
+      <c r="F1655" s="19"/>
+      <c r="G1655" s="19"/>
+      <c r="H1655" s="20"/>
+      <c r="I1655" s="20"/>
+      <c r="J1655" s="21"/>
+    </row>
+    <row r="1656" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1656" s="53"/>
+      <c r="C1656" s="18"/>
+      <c r="D1656" s="52"/>
+      <c r="F1656" s="19"/>
+      <c r="G1656" s="19"/>
+      <c r="H1656" s="20"/>
+      <c r="I1656" s="20"/>
+      <c r="J1656" s="21"/>
+    </row>
+    <row r="1657" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1657" s="53"/>
+      <c r="C1657" s="18"/>
+      <c r="D1657" s="52"/>
+      <c r="F1657" s="19"/>
+      <c r="G1657" s="19"/>
+      <c r="H1657" s="20"/>
+      <c r="I1657" s="20"/>
+      <c r="J1657" s="21"/>
+    </row>
+    <row r="1658" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1658" s="53"/>
+      <c r="C1658" s="18"/>
+      <c r="D1658" s="52"/>
+      <c r="F1658" s="19"/>
+      <c r="G1658" s="19"/>
+      <c r="H1658" s="20"/>
+      <c r="I1658" s="20"/>
+      <c r="J1658" s="21"/>
+    </row>
+    <row r="1659" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1659" s="53"/>
+      <c r="C1659" s="18"/>
+      <c r="D1659" s="52"/>
+      <c r="F1659" s="19"/>
+      <c r="G1659" s="19"/>
+      <c r="H1659" s="20"/>
+      <c r="I1659" s="20"/>
+      <c r="J1659" s="21"/>
+    </row>
+    <row r="1660" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1660" s="53"/>
+      <c r="C1660" s="18"/>
+      <c r="D1660" s="52"/>
+      <c r="F1660" s="19"/>
+      <c r="G1660" s="19"/>
+      <c r="H1660" s="20"/>
+      <c r="I1660" s="20"/>
+      <c r="J1660" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:J122" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:J136" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B115" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B129" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>40</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D119:D121" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D133:D135" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>13</formula1>
     </dataValidation>
   </dataValidations>

--- a/чистый бланк/ЗАКАЗ КРЫМ 05,09,24ц-выезд 07,09.xlsx
+++ b/чистый бланк/ЗАКАЗ КРЫМ 05,09,24ц-выезд 07,09.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B2C602-FBF4-448C-AAE4-2356BA5ED5D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3B005A-447C-4E55-B429-56A3091A1334}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="кск формула" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$138</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="208">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -650,6 +650,12 @@
   </si>
   <si>
     <t>ОСТАНКИНСКАЯ вар п/о</t>
+  </si>
+  <si>
+    <t>НЕАПОЛИТАНСКИЙ ДУЭТ с/к с/н мгс 1/90</t>
+  </si>
+  <si>
+    <t>ДОКТОРСКАЯ ГОСТ вар б/о срез 0.4кг 8шт.</t>
   </si>
 </sst>
 </file>
@@ -1828,11 +1834,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M1660"/>
+  <dimension ref="A1:M1662"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L144" sqref="L144"/>
+      <selection pane="bottomLeft" activeCell="L146" sqref="L146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1977,7 +1983,7 @@
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="94" t="str">
-        <f>RIGHT(D11:D135,4)</f>
+        <f>RIGHT(D11:D137,4)</f>
         <v>5246</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -2008,7 +2014,7 @@
     </row>
     <row r="12" spans="1:12" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="94" t="str">
-        <f>RIGHT(D12:D136,4)</f>
+        <f>RIGHT(D12:D138,4)</f>
         <v>4555</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -2034,7 +2040,7 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="94" t="str">
-        <f>RIGHT(D13:D136,4)</f>
+        <f>RIGHT(D13:D138,4)</f>
         <v>5992</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -2058,7 +2064,7 @@
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="94" t="str">
-        <f>RIGHT(D14:D137,4)</f>
+        <f>RIGHT(D14:D139,4)</f>
         <v>6268</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -2082,7 +2088,7 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="94" t="str">
-        <f>RIGHT(D15:D138,4)</f>
+        <f>RIGHT(D15:D140,4)</f>
         <v>6247</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -2106,7 +2112,7 @@
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="94" t="str">
-        <f>RIGHT(D16:D138,4)</f>
+        <f>RIGHT(D16:D140,4)</f>
         <v>6325</v>
       </c>
       <c r="B16" s="27" t="s">
@@ -2136,7 +2142,7 @@
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="94" t="str">
-        <f>RIGHT(D17:D139,4)</f>
+        <f>RIGHT(D17:D141,4)</f>
         <v>6324</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -2160,84 +2166,81 @@
       <c r="I17" s="14"/>
       <c r="J17" s="39"/>
     </row>
-    <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="94" t="str">
-        <f>RIGHT(D18:D141,4)</f>
-        <v>6426</v>
+        <f>RIGHT(D18:D142,4)</f>
+        <v>6839</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="28">
-        <v>1001013956426</v>
+        <v>1001010016839</v>
       </c>
       <c r="E18" s="24"/>
-      <c r="F18" s="23"/>
+      <c r="F18" s="23">
+        <v>0.4</v>
+      </c>
       <c r="G18" s="23">
-        <f>E18*0.3</f>
+        <f>F18*E18</f>
         <v>0</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="39"/>
+      <c r="K18" s="82"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="94" t="str">
-        <f>RIGHT(D19:D142,4)</f>
-        <v>4063</v>
+        <f>RIGHT(D19:D143,4)</f>
+        <v>6426</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D19" s="28">
-        <v>1001012484063</v>
+        <v>1001013956426</v>
       </c>
       <c r="E19" s="24"/>
-      <c r="F19" s="23">
-        <v>1.366666666666666</v>
-      </c>
+      <c r="F19" s="23"/>
       <c r="G19" s="23">
-        <f>E19*1</f>
+        <f>E19*0.3</f>
         <v>0</v>
       </c>
-      <c r="H19" s="14">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I19" s="14">
-        <v>60</v>
-      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
       <c r="J19" s="39"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="94" t="str">
-        <f>RIGHT(D20:D143,4)</f>
-        <v>6333</v>
+        <f>RIGHT(D20:D144,4)</f>
+        <v>4063</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="D20" s="28">
-        <v>1001012486333</v>
+        <v>1001012484063</v>
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="23">
-        <v>0.4</v>
+        <v>1.366666666666666</v>
       </c>
       <c r="G20" s="23">
-        <f>E20*0.4</f>
+        <f>E20*1</f>
         <v>0</v>
       </c>
       <c r="H20" s="14">
-        <v>3.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I20" s="14">
         <v>60</v>
@@ -2246,28 +2249,28 @@
     </row>
     <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="94" t="str">
-        <f>RIGHT(D21:D144,4)</f>
-        <v>4574</v>
+        <f>RIGHT(D21:D145,4)</f>
+        <v>6333</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="D21" s="28">
-        <v>1001012634574</v>
+        <v>1001012486333</v>
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="23">
-        <v>1.366666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="G21" s="23">
-        <f>E21*1</f>
+        <f>E21*0.4</f>
         <v>0</v>
       </c>
       <c r="H21" s="14">
-        <v>4.0999999999999996</v>
+        <v>3.2</v>
       </c>
       <c r="I21" s="14">
         <v>60</v>
@@ -2276,28 +2279,28 @@
     </row>
     <row r="22" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="94" t="str">
-        <f>RIGHT(D22:D145,4)</f>
-        <v>6861</v>
+        <f>RIGHT(D22:D146,4)</f>
+        <v>4574</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="28">
-        <v>1001015646861</v>
+        <v>1001012634574</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="23">
-        <v>2</v>
+        <v>1.366666666666666</v>
       </c>
       <c r="G22" s="23">
         <f>E22*1</f>
         <v>0</v>
       </c>
       <c r="H22" s="14">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I22" s="14">
         <v>60</v>
@@ -2306,46 +2309,52 @@
     </row>
     <row r="23" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="94" t="str">
-        <f>RIGHT(D23:D149,4)</f>
-        <v>6862</v>
+        <f>RIGHT(D23:D147,4)</f>
+        <v>6861</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="28">
-        <v>1001015706862</v>
+        <v>1001015646861</v>
       </c>
       <c r="E23" s="24"/>
-      <c r="F23" s="23"/>
+      <c r="F23" s="23">
+        <v>2</v>
+      </c>
       <c r="G23" s="23">
         <f>E23*1</f>
         <v>0</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
+      <c r="H23" s="14">
+        <v>4</v>
+      </c>
+      <c r="I23" s="14">
+        <v>60</v>
+      </c>
       <c r="J23" s="39"/>
     </row>
     <row r="24" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="94" t="str">
-        <f>RIGHT(D24:D149,4)</f>
-        <v>6341</v>
+        <f>RIGHT(D24:D151,4)</f>
+        <v>6862</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>25</v>
+        <v>35</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="D24" s="28">
-        <v>1001012816341</v>
+        <v>1001015706862</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="23"/>
       <c r="G24" s="23">
-        <f>E24*0.5</f>
+        <f>E24*1</f>
         <v>0</v>
       </c>
       <c r="H24" s="14"/>
@@ -2354,139 +2363,138 @@
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="94" t="str">
-        <f>RIGHT(D25:D150,4)</f>
-        <v>6747</v>
+        <f>RIGHT(D25:D151,4)</f>
+        <v>6341</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D25" s="28">
-        <v>1001010856747</v>
+        <v>1001012816341</v>
       </c>
       <c r="E25" s="24"/>
-      <c r="F25" s="23">
-        <v>1.48</v>
-      </c>
+      <c r="F25" s="23"/>
       <c r="G25" s="23">
-        <f>E25*1</f>
+        <f>E25*0.5</f>
         <v>0</v>
       </c>
-      <c r="H25" s="14">
-        <v>2.96</v>
-      </c>
-      <c r="I25" s="14">
-        <v>45</v>
-      </c>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
       <c r="J25" s="39"/>
     </row>
     <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="94" t="str">
-        <f>RIGHT(D26:D153,4)</f>
-        <v>4813</v>
+        <f>RIGHT(D26:D152,4)</f>
+        <v>6747</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="28">
-        <v>1001012564813</v>
+        <v>1001010856747</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="23">
-        <v>1.366666666666666</v>
+        <v>1.48</v>
       </c>
       <c r="G26" s="23">
         <f>E26*1</f>
         <v>0</v>
       </c>
       <c r="H26" s="14">
-        <v>4.0999999999999996</v>
+        <v>2.96</v>
       </c>
       <c r="I26" s="14">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="J26" s="39"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="94" t="str">
-        <f>RIGHT(D27:D154,4)</f>
-        <v>6392</v>
+        <f>RIGHT(D27:D155,4)</f>
+        <v>4813</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D27" s="28">
-        <v>1001012566392</v>
+        <v>1001012564813</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="23">
-        <v>0.4</v>
+        <v>1.366666666666666</v>
       </c>
       <c r="G27" s="23">
-        <f>E27*0.4</f>
+        <f>E27*1</f>
         <v>0</v>
       </c>
       <c r="H27" s="14">
-        <v>3.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I27" s="14">
         <v>60</v>
       </c>
       <c r="J27" s="39"/>
     </row>
-    <row r="28" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="94" t="str">
-        <f>RIGHT(D28:D155,4)</f>
-        <v>6801</v>
+        <f>RIGHT(D28:D156,4)</f>
+        <v>6392</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>202</v>
+        <v>39</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="28">
-        <v>1001012596801</v>
+        <v>1001012566392</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="23">
         <v>0.4</v>
       </c>
       <c r="G28" s="23">
-        <f>F28*E28</f>
+        <f>E28*0.4</f>
         <v>0</v>
       </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
+      <c r="H28" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I28" s="14">
+        <v>60</v>
+      </c>
       <c r="J28" s="39"/>
-      <c r="K28" s="82"/>
     </row>
     <row r="29" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="94" t="str">
-        <f>RIGHT(D29:D156,4)</f>
-        <v>6802</v>
+        <f>RIGHT(D29:D157,4)</f>
+        <v>6801</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>23</v>
+        <v>202</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D29" s="28">
-        <v>1001012596802</v>
+        <v>1001012596801</v>
       </c>
       <c r="E29" s="24"/>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23">
+        <v>0.4</v>
+      </c>
       <c r="G29" s="23">
-        <f>E29</f>
+        <f>F29*E29</f>
         <v>0</v>
       </c>
       <c r="H29" s="14"/>
@@ -2494,59 +2502,56 @@
       <c r="J29" s="39"/>
       <c r="K29" s="82"/>
     </row>
-    <row r="30" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="94" t="str">
-        <f>RIGHT(D30:D156,4)</f>
-        <v>5851</v>
+        <f>RIGHT(D30:D158,4)</f>
+        <v>6802</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="C30" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="28">
-        <v>1001012505851</v>
+        <v>1001012596802</v>
       </c>
       <c r="E30" s="24"/>
-      <c r="F30" s="23">
-        <v>1.366666666666666</v>
-      </c>
+      <c r="F30" s="23"/>
       <c r="G30" s="23">
-        <f>E30*1</f>
+        <f>E30</f>
         <v>0</v>
       </c>
-      <c r="H30" s="14">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I30" s="14">
-        <v>60</v>
-      </c>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
       <c r="J30" s="39"/>
+      <c r="K30" s="82"/>
     </row>
     <row r="31" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="94" t="str">
-        <f>RIGHT(D31:D157,4)</f>
-        <v>6158</v>
+        <f>RIGHT(D31:D158,4)</f>
+        <v>5851</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D31" s="28">
-        <v>1001014486158</v>
+        <v>1001012505851</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="23">
-        <v>0.4</v>
+        <v>1.366666666666666</v>
       </c>
       <c r="G31" s="23">
-        <f>E31*0.4</f>
+        <f>E31*1</f>
         <v>0</v>
       </c>
-      <c r="H31" s="14"/>
+      <c r="H31" s="14">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="I31" s="14">
         <v>60</v>
       </c>
@@ -2555,23 +2560,23 @@
     <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="94" t="str">
         <f>RIGHT(D32:D159,4)</f>
-        <v>6340</v>
-      </c>
-      <c r="B32" s="96" t="s">
-        <v>42</v>
+        <v>6158</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>41</v>
       </c>
       <c r="C32" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D32" s="28">
-        <v>1001012816340</v>
+        <v>1001014486158</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="23">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G32" s="23">
-        <f>E32*0.5</f>
+        <f>E32*0.4</f>
         <v>0</v>
       </c>
       <c r="H32" s="14"/>
@@ -2580,96 +2585,99 @@
       </c>
       <c r="J32" s="39"/>
     </row>
-    <row r="33" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="94" t="str">
-        <f>RIGHT(D33:D157,4)</f>
-        <v>6353</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>43</v>
+        <f>RIGHT(D33:D161,4)</f>
+        <v>6340</v>
+      </c>
+      <c r="B33" s="96" t="s">
+        <v>42</v>
       </c>
       <c r="C33" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="28">
-        <v>1001012506353</v>
+        <v>1001012816340</v>
       </c>
       <c r="E33" s="24"/>
       <c r="F33" s="23">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G33" s="23">
-        <f>E33*0.4</f>
+        <f>E33*0.5</f>
         <v>0</v>
       </c>
-      <c r="H33" s="14">
-        <v>3.2</v>
-      </c>
+      <c r="H33" s="14"/>
       <c r="I33" s="14">
         <v>60</v>
       </c>
       <c r="J33" s="39"/>
     </row>
-    <row r="34" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="94" t="str">
-        <f>RIGHT(D34:D158,4)</f>
+        <f>RIGHT(D34:D159,4)</f>
+        <v>6353</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="28">
+        <v>1001012506353</v>
+      </c>
+      <c r="E34" s="24"/>
+      <c r="F34" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="G34" s="23">
+        <f>E34*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I34" s="14">
+        <v>60</v>
+      </c>
+      <c r="J34" s="39"/>
+    </row>
+    <row r="35" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="94" t="str">
+        <f>RIGHT(D35:D160,4)</f>
         <v/>
       </c>
-      <c r="B34" s="74" t="s">
+      <c r="B35" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="75"/>
-    </row>
-    <row r="35" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="94" t="str">
-        <f>RIGHT(D35:D161,4)</f>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="75"/>
+    </row>
+    <row r="36" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="94" t="str">
+        <f>RIGHT(D36:D163,4)</f>
         <v>6870</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B36" s="27" t="s">
         <v>45</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="28">
-        <v>1001023856870</v>
-      </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23">
-        <f>E35*1</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="82"/>
-    </row>
-    <row r="36" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="94" t="str">
-        <f>RIGHT(D36:D162,4)</f>
-        <v>6253</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>200</v>
       </c>
       <c r="C36" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D36" s="28">
-        <v>1001020836253</v>
+        <v>1001023856870</v>
       </c>
       <c r="E36" s="24"/>
       <c r="F36" s="23"/>
       <c r="G36" s="23">
-        <f>E36</f>
+        <f>E36*1</f>
         <v>0</v>
       </c>
       <c r="H36" s="14"/>
@@ -2679,22 +2687,22 @@
     </row>
     <row r="37" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="94" t="str">
-        <f>RIGHT(D37:D161,4)</f>
-        <v>6602</v>
+        <f>RIGHT(D37:D164,4)</f>
+        <v>6253</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>25</v>
+        <v>200</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D37" s="28">
-        <v>1001021966602</v>
+        <v>1001020836253</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="23"/>
       <c r="G37" s="23">
-        <f>E37*0.35</f>
+        <f>E37</f>
         <v>0</v>
       </c>
       <c r="H37" s="14"/>
@@ -2704,22 +2712,22 @@
     </row>
     <row r="38" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="94" t="str">
-        <f>RIGHT(D38:D164,4)</f>
-        <v>6768</v>
+        <f>RIGHT(D38:D163,4)</f>
+        <v>6602</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="28">
-        <v>1001025176768</v>
+        <v>1001021966602</v>
       </c>
       <c r="E38" s="24"/>
       <c r="F38" s="23"/>
       <c r="G38" s="23">
-        <f>E38*0.41</f>
+        <f>E38*0.35</f>
         <v>0</v>
       </c>
       <c r="H38" s="14"/>
@@ -2729,17 +2737,17 @@
     </row>
     <row r="39" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="94" t="str">
-        <f>RIGHT(D39:D165,4)</f>
-        <v>6770</v>
+        <f>RIGHT(D39:D166,4)</f>
+        <v>6768</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D39" s="28">
-        <v>1001025486770</v>
+        <v>1001025176768</v>
       </c>
       <c r="E39" s="24"/>
       <c r="F39" s="23"/>
@@ -2752,48 +2760,49 @@
       <c r="J39" s="39"/>
       <c r="K39" s="82"/>
     </row>
-    <row r="40" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="94" t="str">
-        <f>RIGHT(D40:D168,4)</f>
-        <v>6829</v>
+        <f>RIGHT(D40:D167,4)</f>
+        <v>6770</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D40" s="28">
-        <v>1001024976829</v>
+        <v>1001025486770</v>
       </c>
       <c r="E40" s="24"/>
       <c r="F40" s="23"/>
       <c r="G40" s="23">
-        <f>E40*1</f>
+        <f>E40*0.41</f>
         <v>0</v>
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="39"/>
+      <c r="K40" s="82"/>
     </row>
     <row r="41" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="94" t="str">
-        <f>RIGHT(D41:D173,4)</f>
-        <v>6854</v>
+        <f>RIGHT(D41:D170,4)</f>
+        <v>6829</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>25</v>
+        <v>49</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="D41" s="28">
-        <v>1001022656854</v>
+        <v>1001024976829</v>
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="23"/>
       <c r="G41" s="23">
-        <f>E41*0.6</f>
+        <f>E41*1</f>
         <v>0</v>
       </c>
       <c r="H41" s="14"/>
@@ -2802,22 +2811,22 @@
     </row>
     <row r="42" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="94" t="str">
-        <f>RIGHT(D42:D174,4)</f>
-        <v>6852</v>
+        <f>RIGHT(D42:D175,4)</f>
+        <v>6854</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="28">
-        <v>1001022656852</v>
+        <v>1001022656854</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="23"/>
       <c r="G42" s="23">
-        <f>E42*0.35</f>
+        <f>E42*0.6</f>
         <v>0</v>
       </c>
       <c r="H42" s="14"/>
@@ -2826,22 +2835,22 @@
     </row>
     <row r="43" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="94" t="str">
-        <f>RIGHT(D43:D174,4)</f>
-        <v>6853</v>
+        <f>RIGHT(D43:D176,4)</f>
+        <v>6852</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>23</v>
+        <v>51</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D43" s="28">
-        <v>1001022656853</v>
+        <v>1001022656852</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="23"/>
       <c r="G43" s="23">
-        <f>E43*1</f>
+        <f>E43*0.35</f>
         <v>0</v>
       </c>
       <c r="H43" s="14"/>
@@ -2850,22 +2859,22 @@
     </row>
     <row r="44" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="94" t="str">
-        <f>RIGHT(D44:D175,4)</f>
-        <v>6759</v>
+        <f>RIGHT(D44:D176,4)</f>
+        <v>6853</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D44" s="28">
-        <v>1001020836759</v>
+        <v>1001022656853</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="23"/>
       <c r="G44" s="23">
-        <f>E44*0.4</f>
+        <f>E44*1</f>
         <v>0</v>
       </c>
       <c r="H44" s="14"/>
@@ -2874,181 +2883,179 @@
     </row>
     <row r="45" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="94" t="str">
-        <f>RIGHT(D45:D176,4)</f>
-        <v>6901</v>
+        <f>RIGHT(D45:D177,4)</f>
+        <v>6759</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D45" s="28">
-        <v>1001025526901</v>
+        <v>1001020836759</v>
       </c>
       <c r="E45" s="24"/>
-      <c r="F45" s="23">
-        <v>0.16</v>
-      </c>
+      <c r="F45" s="23"/>
       <c r="G45" s="23">
-        <f>E45*F45</f>
+        <f>E45*0.4</f>
         <v>0</v>
       </c>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
       <c r="J45" s="39"/>
     </row>
-    <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="94" t="str">
-        <f>RIGHT(D46:D175,4)</f>
-        <v>6303</v>
-      </c>
-      <c r="B46" s="70" t="s">
-        <v>56</v>
+        <f>RIGHT(D46:D178,4)</f>
+        <v>6901</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>54</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D46" s="28">
-        <v>1001022726303</v>
+        <v>1001025526901</v>
       </c>
       <c r="E46" s="24"/>
       <c r="F46" s="23">
-        <v>1.0666666666666671</v>
+        <v>0.16</v>
       </c>
       <c r="G46" s="23">
-        <f>E46*1</f>
+        <f>E46*F46</f>
         <v>0</v>
       </c>
-      <c r="H46" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I46" s="14">
-        <v>45</v>
-      </c>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
       <c r="J46" s="39"/>
-      <c r="K46" s="82"/>
     </row>
     <row r="47" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="94" t="str">
-        <f>RIGHT(D47:D176,4)</f>
-        <v>6777</v>
+        <f>RIGHT(D47:D177,4)</f>
+        <v>6303</v>
       </c>
       <c r="B47" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="33" t="s">
-        <v>25</v>
+        <v>56</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D47" s="28">
-        <v>1001025506777</v>
+        <v>1001022726303</v>
       </c>
       <c r="E47" s="24"/>
-      <c r="F47" s="23"/>
+      <c r="F47" s="23">
+        <v>1.0666666666666671</v>
+      </c>
       <c r="G47" s="23">
-        <f>E47*0.4</f>
+        <f>E47*1</f>
         <v>0</v>
       </c>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
+      <c r="H47" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I47" s="14">
+        <v>45</v>
+      </c>
       <c r="J47" s="39"/>
       <c r="K47" s="82"/>
     </row>
-    <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="94" t="str">
-        <f>RIGHT(D48:D176,4)</f>
-        <v>6726</v>
-      </c>
-      <c r="B48" s="45" t="s">
-        <v>58</v>
+        <f>RIGHT(D48:D178,4)</f>
+        <v>6777</v>
+      </c>
+      <c r="B48" s="70" t="s">
+        <v>57</v>
       </c>
       <c r="C48" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="28">
-        <v>1001022466726</v>
+        <v>1001025506777</v>
       </c>
       <c r="E48" s="24"/>
-      <c r="F48" s="23">
-        <v>0.45</v>
-      </c>
+      <c r="F48" s="23"/>
       <c r="G48" s="23">
-        <f>E48*0.41</f>
+        <f>E48*0.4</f>
         <v>0</v>
       </c>
-      <c r="H48" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="I48" s="14">
-        <v>45</v>
-      </c>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
       <c r="J48" s="39"/>
+      <c r="K48" s="82"/>
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="94" t="str">
-        <f>RIGHT(D49:D177,4)</f>
-        <v>6762</v>
+        <f>RIGHT(D49:D178,4)</f>
+        <v>6726</v>
       </c>
       <c r="B49" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="28">
-        <v>1001020846762</v>
+        <v>1001022466726</v>
       </c>
       <c r="E49" s="24"/>
       <c r="F49" s="23">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
       <c r="G49" s="23">
-        <f>E49*F49</f>
+        <f>E49*0.41</f>
         <v>0</v>
       </c>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
+      <c r="H49" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="I49" s="14">
+        <v>45</v>
+      </c>
       <c r="J49" s="39"/>
     </row>
     <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="94" t="str">
-        <f>RIGHT(D50:D177,4)</f>
-        <v>5820</v>
+        <f>RIGHT(D50:D179,4)</f>
+        <v>6762</v>
       </c>
       <c r="B50" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>23</v>
+        <v>59</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D50" s="28">
-        <v>1001022465820</v>
+        <v>1001020846762</v>
       </c>
       <c r="E50" s="24"/>
-      <c r="F50" s="23"/>
+      <c r="F50" s="23">
+        <v>0.41</v>
+      </c>
       <c r="G50" s="23">
-        <f>E50*1</f>
+        <f>E50*F50</f>
         <v>0</v>
       </c>
       <c r="H50" s="14"/>
-      <c r="I50" s="14">
-        <v>45</v>
-      </c>
+      <c r="I50" s="14"/>
       <c r="J50" s="39"/>
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="94" t="str">
         <f>RIGHT(D51:D179,4)</f>
-        <v>6764</v>
+        <v>5820</v>
       </c>
       <c r="B51" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D51" s="28">
-        <v>1001020846764</v>
+        <v>1001022465820</v>
       </c>
       <c r="E51" s="24"/>
       <c r="F51" s="23"/>
@@ -3057,22 +3064,24 @@
         <v>0</v>
       </c>
       <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
+      <c r="I51" s="14">
+        <v>45</v>
+      </c>
       <c r="J51" s="39"/>
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="94" t="str">
         <f>RIGHT(D52:D181,4)</f>
-        <v>6761</v>
+        <v>6764</v>
       </c>
       <c r="B52" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D52" s="28">
-        <v>1001020836761</v>
+        <v>1001020846764</v>
       </c>
       <c r="E52" s="24"/>
       <c r="F52" s="23"/>
@@ -3086,17 +3095,17 @@
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="94" t="str">
-        <f>RIGHT(D53:D182,4)</f>
-        <v>6767</v>
+        <f>RIGHT(D53:D183,4)</f>
+        <v>6761</v>
       </c>
       <c r="B53" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C53" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D53" s="28">
-        <v>1001023696767</v>
+        <v>1001020836761</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="23"/>
@@ -3110,22 +3119,22 @@
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="94" t="str">
-        <f>RIGHT(D54:D182,4)</f>
-        <v>6765</v>
+        <f>RIGHT(D54:D184,4)</f>
+        <v>6767</v>
       </c>
       <c r="B54" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="33" t="s">
-        <v>25</v>
+        <v>63</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D54" s="28">
-        <v>1001023696765</v>
+        <v>1001023696767</v>
       </c>
       <c r="E54" s="24"/>
       <c r="F54" s="23"/>
       <c r="G54" s="23">
-        <f>E54*0.36</f>
+        <f>E54*1</f>
         <v>0</v>
       </c>
       <c r="H54" s="14"/>
@@ -3134,24 +3143,22 @@
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="94" t="str">
-        <f>RIGHT(D55:D183,4)</f>
-        <v>6909</v>
+        <f>RIGHT(D55:D184,4)</f>
+        <v>6765</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C55" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="28">
-        <v>1001025766909</v>
+        <v>1001023696765</v>
       </c>
       <c r="E55" s="24"/>
-      <c r="F55" s="23">
-        <v>0.33</v>
-      </c>
+      <c r="F55" s="23"/>
       <c r="G55" s="23">
-        <f>E55*F55</f>
+        <f>E55*0.36</f>
         <v>0</v>
       </c>
       <c r="H55" s="14"/>
@@ -3160,164 +3167,165 @@
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="94" t="str">
-        <f>RIGHT(D56:D182,4)</f>
-        <v>6722</v>
+        <f>RIGHT(D56:D185,4)</f>
+        <v>6909</v>
       </c>
       <c r="B56" s="45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C56" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="28">
-        <v>1001022376722</v>
+        <v>1001025766909</v>
       </c>
       <c r="E56" s="24"/>
       <c r="F56" s="23">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="G56" s="23">
-        <f>E56*0.41</f>
+        <f>E56*F56</f>
         <v>0</v>
       </c>
-      <c r="H56" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="I56" s="14">
-        <v>45</v>
-      </c>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
       <c r="J56" s="39"/>
     </row>
     <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="94" t="str">
-        <f>RIGHT(D57:D183,4)</f>
-        <v>6837</v>
+        <f>RIGHT(D57:D184,4)</f>
+        <v>6722</v>
       </c>
       <c r="B57" s="45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="28">
-        <v>1001022556837</v>
+        <v>1001022376722</v>
       </c>
       <c r="E57" s="24"/>
       <c r="F57" s="23">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="G57" s="23">
-        <f>E57*0.4</f>
+        <f>E57*0.41</f>
         <v>0</v>
       </c>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
+      <c r="H57" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="I57" s="14">
+        <v>45</v>
+      </c>
       <c r="J57" s="39"/>
     </row>
     <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="94" t="str">
-        <f>RIGHT(D58:D183,4)</f>
-        <v>3812</v>
+        <f>RIGHT(D58:D185,4)</f>
+        <v>6837</v>
       </c>
       <c r="B58" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" s="30" t="s">
-        <v>23</v>
+        <v>67</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D58" s="28">
-        <v>1001022373812</v>
+        <v>1001022556837</v>
       </c>
       <c r="E58" s="24"/>
       <c r="F58" s="23">
-        <v>2.125</v>
+        <v>0.4</v>
       </c>
       <c r="G58" s="23">
-        <f>E58*1</f>
+        <f>E58*0.4</f>
         <v>0</v>
       </c>
-      <c r="H58" s="14">
-        <v>4.25</v>
-      </c>
-      <c r="I58" s="14">
-        <v>45</v>
-      </c>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
       <c r="J58" s="39"/>
     </row>
-    <row r="59" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="94" t="str">
-        <f>RIGHT(D59:D184,4)</f>
-        <v>6113</v>
-      </c>
-      <c r="B59" s="27" t="s">
-        <v>69</v>
+        <f>RIGHT(D59:D185,4)</f>
+        <v>3812</v>
+      </c>
+      <c r="B59" s="45" t="s">
+        <v>68</v>
       </c>
       <c r="C59" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D59" s="28">
-        <v>1001022376113</v>
+        <v>1001022373812</v>
       </c>
       <c r="E59" s="24"/>
       <c r="F59" s="23">
-        <v>1.033333333333333</v>
+        <v>2.125</v>
       </c>
       <c r="G59" s="23">
         <f>E59*1</f>
         <v>0</v>
       </c>
       <c r="H59" s="14">
-        <v>6.2000000000000011</v>
+        <v>4.25</v>
       </c>
       <c r="I59" s="14">
         <v>45</v>
       </c>
       <c r="J59" s="39"/>
-      <c r="K59" s="82"/>
     </row>
     <row r="60" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="94" t="str">
-        <f>RIGHT(D60:D185,4)</f>
-        <v>6661</v>
+        <f>RIGHT(D60:D186,4)</f>
+        <v>6113</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C60" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D60" s="28">
-        <v>1001022246661</v>
+        <v>1001022376113</v>
       </c>
       <c r="E60" s="24"/>
-      <c r="F60" s="23"/>
+      <c r="F60" s="23">
+        <v>1.033333333333333</v>
+      </c>
       <c r="G60" s="23">
         <f>E60*1</f>
         <v>0</v>
       </c>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
+      <c r="H60" s="14">
+        <v>6.2000000000000011</v>
+      </c>
+      <c r="I60" s="14">
+        <v>45</v>
+      </c>
       <c r="J60" s="39"/>
       <c r="K60" s="82"/>
     </row>
-    <row r="61" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="94" t="str">
-        <f>RIGHT(D61:D186,4)</f>
-        <v>6713</v>
+        <f>RIGHT(D61:D187,4)</f>
+        <v>6661</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61" s="35" t="s">
-        <v>25</v>
+        <v>70</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D61" s="28">
-        <v>1001022246713</v>
+        <v>1001022246661</v>
       </c>
       <c r="E61" s="24"/>
       <c r="F61" s="23"/>
       <c r="G61" s="23">
-        <f>E61*0.41</f>
+        <f>E61*1</f>
         <v>0</v>
       </c>
       <c r="H61" s="14"/>
@@ -3325,242 +3333,243 @@
       <c r="J61" s="39"/>
       <c r="K61" s="82"/>
     </row>
-    <row r="62" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="94" t="str">
-        <f>RIGHT(D62:D182,4)</f>
+        <f>RIGHT(D62:D188,4)</f>
+        <v>6713</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="28">
+        <v>1001022246713</v>
+      </c>
+      <c r="E62" s="24"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23">
+        <f>E62*0.41</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="82"/>
+    </row>
+    <row r="63" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="94" t="str">
+        <f>RIGHT(D63:D184,4)</f>
         <v/>
       </c>
-      <c r="B62" s="74" t="s">
+      <c r="B63" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="74"/>
-      <c r="D62" s="74"/>
-      <c r="E62" s="74"/>
-      <c r="F62" s="73"/>
-      <c r="G62" s="74"/>
-      <c r="H62" s="74"/>
-      <c r="I62" s="74"/>
-      <c r="J62" s="75"/>
-    </row>
-    <row r="63" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="94" t="str">
-        <f>RIGHT(D63:D183,4)</f>
+      <c r="C63" s="74"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="73"/>
+      <c r="G63" s="74"/>
+      <c r="H63" s="74"/>
+      <c r="I63" s="74"/>
+      <c r="J63" s="75"/>
+    </row>
+    <row r="64" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="94" t="str">
+        <f>RIGHT(D64:D185,4)</f>
         <v>5698</v>
       </c>
-      <c r="B63" s="46" t="s">
+      <c r="B64" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C63" s="30" t="s">
+      <c r="C64" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D63" s="28">
+      <c r="D64" s="28">
         <v>1001034065698</v>
       </c>
-      <c r="E63" s="24"/>
-      <c r="F63" s="23">
+      <c r="E64" s="24"/>
+      <c r="F64" s="23">
         <v>1.013333333333333</v>
       </c>
-      <c r="G63" s="23">
-        <f>E63*1</f>
+      <c r="G64" s="23">
+        <f>E64*1</f>
         <v>0</v>
       </c>
-      <c r="H63" s="14">
+      <c r="H64" s="14">
         <v>3.04</v>
       </c>
-      <c r="I63" s="14">
+      <c r="I64" s="14">
         <v>30</v>
       </c>
-      <c r="J63" s="39"/>
-    </row>
-    <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="94" t="str">
-        <f>RIGHT(D64:D186,4)</f>
-        <v>6528</v>
-      </c>
-      <c r="B64" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D64" s="28">
-        <v>1001031076528</v>
-      </c>
-      <c r="E64" s="24"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23">
-        <f>E64*0.4</f>
-        <v>0</v>
-      </c>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
       <c r="J64" s="39"/>
     </row>
-    <row r="65" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="94" t="str">
         <f>RIGHT(D65:D188,4)</f>
+        <v>6528</v>
+      </c>
+      <c r="B65" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="28">
+        <v>1001031076528</v>
+      </c>
+      <c r="E65" s="24"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23">
+        <f>E65*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="39"/>
+    </row>
+    <row r="66" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="94" t="str">
+        <f>RIGHT(D66:D190,4)</f>
         <v>6527</v>
       </c>
-      <c r="B65" s="46" t="s">
+      <c r="B66" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="C66" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D65" s="28">
+      <c r="D66" s="28">
         <v>1001031076527</v>
       </c>
-      <c r="E65" s="24"/>
-      <c r="F65" s="23">
+      <c r="E66" s="24"/>
+      <c r="F66" s="23">
         <v>1.0166666666666671</v>
       </c>
-      <c r="G65" s="23">
-        <f>E65*1</f>
+      <c r="G66" s="23">
+        <f>E66*1</f>
         <v>0</v>
       </c>
-      <c r="H65" s="14">
+      <c r="H66" s="14">
         <v>3.05</v>
       </c>
-      <c r="I65" s="14">
+      <c r="I66" s="14">
         <v>30</v>
       </c>
-      <c r="J65" s="39"/>
-    </row>
-    <row r="66" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="94" t="str">
-        <f>RIGHT(D66:D189,4)</f>
+      <c r="J66" s="39"/>
+    </row>
+    <row r="67" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="94" t="str">
+        <f>RIGHT(D67:D191,4)</f>
         <v/>
       </c>
-      <c r="B66" s="74" t="s">
+      <c r="B67" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="C66" s="74"/>
-      <c r="D66" s="74"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="74"/>
-      <c r="H66" s="74"/>
-      <c r="I66" s="74"/>
-      <c r="J66" s="75"/>
-    </row>
-    <row r="67" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="94" t="str">
-        <f>RIGHT(D67:D190,4)</f>
+      <c r="C67" s="74"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="73"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="74"/>
+      <c r="I67" s="74"/>
+      <c r="J67" s="75"/>
+    </row>
+    <row r="68" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="94" t="str">
+        <f>RIGHT(D68:D192,4)</f>
         <v>6666</v>
       </c>
-      <c r="B67" s="27" t="s">
+      <c r="B68" s="27" t="s">
         <v>77</v>
-      </c>
-      <c r="C67" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D67" s="28">
-        <v>1001302276666</v>
-      </c>
-      <c r="E67" s="24"/>
-      <c r="F67" s="23">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G67" s="23">
-        <f>E67*0.28</f>
-        <v>0</v>
-      </c>
-      <c r="H67" s="14">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I67" s="14">
-        <v>45</v>
-      </c>
-      <c r="J67" s="39"/>
-    </row>
-    <row r="68" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="94" t="str">
-        <f>RIGHT(D68:D191,4)</f>
-        <v>6785</v>
-      </c>
-      <c r="B68" s="27" t="s">
-        <v>78</v>
       </c>
       <c r="C68" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="28">
-        <v>1001300516785</v>
+        <v>1001302276666</v>
       </c>
       <c r="E68" s="24"/>
-      <c r="F68" s="23"/>
+      <c r="F68" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G68" s="23">
-        <f>E68*0.33</f>
+        <f>E68*0.28</f>
         <v>0</v>
       </c>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
+      <c r="H68" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I68" s="14">
+        <v>45</v>
+      </c>
       <c r="J68" s="39"/>
     </row>
-    <row r="69" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="94" t="str">
-        <f>RIGHT(D69:D192,4)</f>
-        <v>6415</v>
+        <f>RIGHT(D69:D193,4)</f>
+        <v>6785</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="C69" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="28">
-        <v>1001303636415</v>
+        <v>1001300516785</v>
       </c>
       <c r="E69" s="24"/>
-      <c r="F69" s="23">
-        <v>0.84</v>
-      </c>
+      <c r="F69" s="23"/>
       <c r="G69" s="23">
-        <f>F69*E69</f>
+        <f>E69*0.33</f>
         <v>0</v>
       </c>
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
       <c r="J69" s="39"/>
-      <c r="K69" s="82"/>
-    </row>
-    <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="94" t="str">
-        <f>RIGHT(D70:D192,4)</f>
-        <v>6786</v>
+        <f>RIGHT(D70:D194,4)</f>
+        <v>6415</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="C70" s="33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D70" s="28">
-        <v>1001300516786</v>
+        <v>1001303636415</v>
       </c>
       <c r="E70" s="24"/>
-      <c r="F70" s="23"/>
+      <c r="F70" s="23">
+        <v>0.84</v>
+      </c>
       <c r="G70" s="23">
-        <f>E70</f>
+        <f>F70*E70</f>
         <v>0</v>
       </c>
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
       <c r="J70" s="39"/>
+      <c r="K70" s="82"/>
     </row>
     <row r="71" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="94" t="str">
-        <f>RIGHT(D71:D193,4)</f>
-        <v>6794</v>
+        <f>RIGHT(D71:D194,4)</f>
+        <v>6786</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C71" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D71" s="28">
-        <v>1001303636794</v>
+        <v>1001300516786</v>
       </c>
       <c r="E71" s="24"/>
       <c r="F71" s="23"/>
@@ -3569,125 +3578,125 @@
         <v>0</v>
       </c>
       <c r="H71" s="14"/>
-      <c r="I71" s="14">
-        <v>45</v>
-      </c>
+      <c r="I71" s="14"/>
       <c r="J71" s="39"/>
     </row>
-    <row r="72" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="94" t="str">
-        <f>RIGHT(D72:D191,4)</f>
-        <v>6773</v>
+        <f>RIGHT(D72:D195,4)</f>
+        <v>6794</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D72" s="28">
-        <v>1001303106773</v>
+        <v>1001303636794</v>
       </c>
       <c r="E72" s="24"/>
-      <c r="F72" s="23">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="F72" s="23"/>
       <c r="G72" s="23">
-        <f>E72*0.28</f>
+        <f>E72</f>
         <v>0</v>
       </c>
-      <c r="H72" s="14">
-        <v>2.2400000000000002</v>
-      </c>
+      <c r="H72" s="14"/>
       <c r="I72" s="14">
         <v>45</v>
       </c>
       <c r="J72" s="39"/>
     </row>
-    <row r="73" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="94" t="str">
-        <f>RIGHT(D73:D194,4)</f>
+        <f>RIGHT(D73:D193,4)</f>
+        <v>6773</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" s="28">
+        <v>1001303106773</v>
+      </c>
+      <c r="E73" s="24"/>
+      <c r="F73" s="23">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G73" s="23">
+        <f>E73*0.28</f>
+        <v>0</v>
+      </c>
+      <c r="H73" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I73" s="14">
+        <v>45</v>
+      </c>
+      <c r="J73" s="39"/>
+    </row>
+    <row r="74" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="94" t="str">
+        <f>RIGHT(D74:D196,4)</f>
         <v/>
       </c>
-      <c r="B73" s="74" t="s">
+      <c r="B74" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="C73" s="74"/>
-      <c r="D73" s="74"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="73"/>
-      <c r="G73" s="74"/>
-      <c r="H73" s="74"/>
-      <c r="I73" s="74"/>
-      <c r="J73" s="75"/>
-    </row>
-    <row r="74" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="94" t="str">
-        <f>RIGHT(D74:D195,4)</f>
-        <v>6683</v>
-      </c>
-      <c r="B74" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C74" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D74" s="28">
-        <v>1001300386683</v>
-      </c>
-      <c r="E74" s="24"/>
-      <c r="F74" s="23">
-        <v>0.35</v>
-      </c>
-      <c r="G74" s="23">
-        <f>E74*0.35</f>
-        <v>0</v>
-      </c>
-      <c r="H74" s="14">
-        <v>2.8</v>
-      </c>
-      <c r="I74" s="14">
-        <v>45</v>
-      </c>
-      <c r="J74" s="39"/>
-    </row>
-    <row r="75" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="74"/>
+      <c r="D74" s="74"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="73"/>
+      <c r="G74" s="74"/>
+      <c r="H74" s="74"/>
+      <c r="I74" s="74"/>
+      <c r="J74" s="75"/>
+    </row>
+    <row r="75" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A75" s="94" t="str">
         <f>RIGHT(D75:D197,4)</f>
-        <v>6793</v>
+        <v>6683</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C75" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="28">
-        <v>1001303636793</v>
+        <v>1001300386683</v>
       </c>
       <c r="E75" s="24"/>
-      <c r="F75" s="23"/>
+      <c r="F75" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G75" s="23">
-        <f>E75*0.33</f>
+        <f>E75*0.35</f>
         <v>0</v>
       </c>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
+      <c r="H75" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="I75" s="14">
+        <v>45</v>
+      </c>
       <c r="J75" s="39"/>
     </row>
     <row r="76" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="94" t="str">
-        <f>RIGHT(D76:D198,4)</f>
-        <v>6795</v>
+        <f>RIGHT(D76:D199,4)</f>
+        <v>6793</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C76" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="28">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="E76" s="24"/>
       <c r="F76" s="23"/>
@@ -3701,17 +3710,17 @@
     </row>
     <row r="77" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="94" t="str">
-        <f>RIGHT(D77:D198,4)</f>
-        <v>6807</v>
+        <f>RIGHT(D77:D200,4)</f>
+        <v>6795</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C77" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="28">
-        <v>1001300366807</v>
+        <v>1001302596795</v>
       </c>
       <c r="E77" s="24"/>
       <c r="F77" s="23"/>
@@ -3725,76 +3734,76 @@
     </row>
     <row r="78" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="94" t="str">
-        <f>RIGHT(D78:D198,4)</f>
-        <v>6684</v>
+        <f>RIGHT(D78:D200,4)</f>
+        <v>6807</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C78" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="28">
-        <v>1001304506684</v>
+        <v>1001300366807</v>
       </c>
       <c r="E78" s="24"/>
-      <c r="F78" s="23">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="F78" s="23"/>
       <c r="G78" s="23">
-        <f>E78*0.28</f>
+        <f>E78*0.33</f>
         <v>0</v>
       </c>
-      <c r="H78" s="14">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I78" s="14">
-        <v>45</v>
-      </c>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
       <c r="J78" s="39"/>
     </row>
     <row r="79" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="94" t="str">
         <f>RIGHT(D79:D200,4)</f>
-        <v>6787</v>
+        <v>6684</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C79" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="28">
-        <v>1001300456787</v>
+        <v>1001304506684</v>
       </c>
       <c r="E79" s="24"/>
-      <c r="F79" s="23"/>
+      <c r="F79" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G79" s="23">
-        <f>E79*0.33</f>
+        <f>E79*0.28</f>
         <v>0</v>
       </c>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
+      <c r="H79" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I79" s="14">
+        <v>45</v>
+      </c>
       <c r="J79" s="39"/>
     </row>
     <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="94" t="str">
-        <f>RIGHT(D80:D201,4)</f>
-        <v>6788</v>
+        <f>RIGHT(D80:D202,4)</f>
+        <v>6787</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C80" s="33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D80" s="28">
-        <v>1001300456788</v>
+        <v>1001300456787</v>
       </c>
       <c r="E80" s="24"/>
       <c r="F80" s="23"/>
       <c r="G80" s="23">
-        <f>E80*1</f>
+        <f>E80*0.33</f>
         <v>0</v>
       </c>
       <c r="H80" s="14"/>
@@ -3803,17 +3812,17 @@
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="94" t="str">
-        <f>RIGHT(D81:D202,4)</f>
-        <v>6790</v>
+        <f>RIGHT(D81:D203,4)</f>
+        <v>6788</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C81" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D81" s="28">
-        <v>1001300366790</v>
+        <v>1001300456788</v>
       </c>
       <c r="E81" s="24"/>
       <c r="F81" s="23"/>
@@ -3827,132 +3836,132 @@
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="94" t="str">
-        <f>RIGHT(D82:D201,4)</f>
-        <v>6689</v>
-      </c>
-      <c r="B82" s="64" t="s">
-        <v>91</v>
+        <f>RIGHT(D82:D204,4)</f>
+        <v>6790</v>
+      </c>
+      <c r="B82" s="27" t="s">
+        <v>90</v>
       </c>
       <c r="C82" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D82" s="28">
-        <v>1001303986689</v>
+        <v>1001300366790</v>
       </c>
       <c r="E82" s="24"/>
-      <c r="F82" s="23">
-        <v>0.35</v>
-      </c>
+      <c r="F82" s="23"/>
       <c r="G82" s="23">
-        <f>E82*0.35</f>
+        <f>E82*1</f>
         <v>0</v>
       </c>
-      <c r="H82" s="14">
-        <v>2.8</v>
-      </c>
-      <c r="I82" s="14">
-        <v>45</v>
-      </c>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
       <c r="J82" s="39"/>
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="94" t="str">
-        <f>RIGHT(D83:D202,4)</f>
-        <v>6791</v>
+        <f>RIGHT(D83:D203,4)</f>
+        <v>6689</v>
       </c>
       <c r="B83" s="64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="28">
-        <v>1001304096791</v>
+        <v>1001303986689</v>
       </c>
       <c r="E83" s="24"/>
-      <c r="F83" s="23"/>
+      <c r="F83" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G83" s="23">
-        <f>E83*0.33</f>
+        <f>E83*0.35</f>
         <v>0</v>
       </c>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
+      <c r="H83" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="I83" s="14">
+        <v>45</v>
+      </c>
       <c r="J83" s="39"/>
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="94" t="str">
-        <f>RIGHT(D84:D203,4)</f>
-        <v>5341</v>
+        <f>RIGHT(D84:D204,4)</f>
+        <v>6791</v>
       </c>
       <c r="B84" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="30" t="s">
-        <v>23</v>
+        <v>92</v>
+      </c>
+      <c r="C84" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D84" s="28">
-        <v>1001053985341</v>
+        <v>1001304096791</v>
       </c>
       <c r="E84" s="24"/>
-      <c r="F84" s="23">
-        <v>0.71250000000000002</v>
-      </c>
+      <c r="F84" s="23"/>
       <c r="G84" s="23">
-        <f>E84*1</f>
+        <f>E84*0.33</f>
         <v>0</v>
       </c>
-      <c r="H84" s="14">
-        <v>5.7</v>
-      </c>
-      <c r="I84" s="14">
-        <v>45</v>
-      </c>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
       <c r="J84" s="39"/>
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="94" t="str">
-        <f>RIGHT(D85:D204,4)</f>
-        <v>6459</v>
+        <f>RIGHT(D85:D205,4)</f>
+        <v>5341</v>
       </c>
       <c r="B85" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="C85" s="33" t="s">
-        <v>25</v>
+        <v>93</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D85" s="28">
-        <v>1001214196459</v>
+        <v>1001053985341</v>
       </c>
       <c r="E85" s="24"/>
       <c r="F85" s="23">
-        <v>0.1</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="G85" s="23">
-        <f>E85*F85</f>
+        <f>E85*1</f>
         <v>0</v>
       </c>
-      <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
+      <c r="H85" s="14">
+        <v>5.7</v>
+      </c>
+      <c r="I85" s="14">
+        <v>45</v>
+      </c>
       <c r="J85" s="39"/>
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="94" t="str">
-        <f>RIGHT(D86:D205,4)</f>
-        <v>6586</v>
+        <f>RIGHT(D86:D206,4)</f>
+        <v>6459</v>
       </c>
       <c r="B86" s="64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C86" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="28">
-        <v>1001215576586</v>
+        <v>1001214196459</v>
       </c>
       <c r="E86" s="24"/>
-      <c r="F86" s="23"/>
+      <c r="F86" s="23">
+        <v>0.1</v>
+      </c>
       <c r="G86" s="23">
-        <f>E86*0.09</f>
+        <f>E86*F86</f>
         <v>0</v>
       </c>
       <c r="H86" s="14"/>
@@ -3961,17 +3970,17 @@
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="94" t="str">
-        <f>RIGHT(D87:D203,4)</f>
-        <v>6228</v>
+        <f>RIGHT(D87:D207,4)</f>
+        <v>6586</v>
       </c>
       <c r="B87" s="64" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C87" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="28">
-        <v>1001225416228</v>
+        <v>1001215576586</v>
       </c>
       <c r="E87" s="24"/>
       <c r="F87" s="23"/>
@@ -3985,219 +3994,213 @@
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="94" t="str">
-        <f>RIGHT(D88:D203,4)</f>
+        <f>RIGHT(D88:D205,4)</f>
+        <v>6228</v>
+      </c>
+      <c r="B88" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="C88" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" s="28">
+        <v>1001225416228</v>
+      </c>
+      <c r="E88" s="24"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23">
+        <f>E88*0.09</f>
+        <v>0</v>
+      </c>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="39"/>
+    </row>
+    <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="94" t="str">
+        <f>RIGHT(D89:D205,4)</f>
         <v>5544</v>
       </c>
-      <c r="B88" s="27" t="s">
+      <c r="B89" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="C88" s="30" t="s">
+      <c r="C89" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D88" s="28">
+      <c r="D89" s="28">
         <v>1001051875544</v>
-      </c>
-      <c r="E88" s="24"/>
-      <c r="F88" s="23">
-        <v>0.85</v>
-      </c>
-      <c r="G88" s="23">
-        <f>E88*1</f>
-        <v>0</v>
-      </c>
-      <c r="H88" s="14">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I88" s="14">
-        <v>45</v>
-      </c>
-      <c r="J88" s="39"/>
-    </row>
-    <row r="89" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="94" t="str">
-        <f t="shared" ref="A89:A94" si="0">RIGHT(D89:D205,4)</f>
-        <v>6697</v>
-      </c>
-      <c r="B89" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C89" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D89" s="28">
-        <v>1001301876697</v>
       </c>
       <c r="E89" s="24"/>
       <c r="F89" s="23">
-        <v>0.35</v>
+        <v>0.85</v>
       </c>
       <c r="G89" s="23">
-        <f>E89*0.35</f>
+        <f>E89*1</f>
         <v>0</v>
       </c>
       <c r="H89" s="14">
-        <v>2.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I89" s="14">
         <v>45</v>
       </c>
       <c r="J89" s="39"/>
     </row>
-    <row r="90" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="94" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D90:D207,4)</f>
+        <v>6697</v>
+      </c>
+      <c r="B90" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C90" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" s="28">
+        <v>1001301876697</v>
+      </c>
+      <c r="E90" s="24"/>
+      <c r="F90" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="G90" s="23">
+        <f>E90*0.35</f>
+        <v>0</v>
+      </c>
+      <c r="H90" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="I90" s="14">
+        <v>45</v>
+      </c>
+      <c r="J90" s="39"/>
+    </row>
+    <row r="91" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="94" t="str">
+        <f>RIGHT(D91:D208,4)</f>
         <v/>
       </c>
-      <c r="B90" s="74" t="s">
+      <c r="B91" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="C90" s="74"/>
-      <c r="D90" s="74"/>
-      <c r="E90" s="74"/>
-      <c r="F90" s="73"/>
-      <c r="G90" s="74"/>
-      <c r="H90" s="74"/>
-      <c r="I90" s="74"/>
-      <c r="J90" s="75"/>
-    </row>
-    <row r="91" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="94" t="str">
-        <f t="shared" si="0"/>
+      <c r="C91" s="74"/>
+      <c r="D91" s="74"/>
+      <c r="E91" s="74"/>
+      <c r="F91" s="73"/>
+      <c r="G91" s="74"/>
+      <c r="H91" s="74"/>
+      <c r="I91" s="74"/>
+      <c r="J91" s="75"/>
+    </row>
+    <row r="92" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="94" t="str">
+        <f>RIGHT(D92:D209,4)</f>
         <v>5706</v>
       </c>
-      <c r="B91" s="27" t="s">
+      <c r="B92" s="27" t="s">
         <v>100</v>
-      </c>
-      <c r="C91" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D91" s="28">
-        <v>1001061975706</v>
-      </c>
-      <c r="E91" s="24"/>
-      <c r="F91" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="G91" s="23">
-        <f>E91*0.25</f>
-        <v>0</v>
-      </c>
-      <c r="H91" s="14">
-        <v>2</v>
-      </c>
-      <c r="I91" s="14">
-        <v>120</v>
-      </c>
-      <c r="J91" s="39"/>
-    </row>
-    <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="94" t="str">
-        <f t="shared" si="0"/>
-        <v>6454</v>
-      </c>
-      <c r="B92" s="27" t="s">
-        <v>101</v>
       </c>
       <c r="C92" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="28">
-        <v>1001201976454</v>
+        <v>1001061975706</v>
       </c>
       <c r="E92" s="24"/>
       <c r="F92" s="23">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G92" s="23">
-        <f>E92*0.1</f>
+        <f>E92*0.25</f>
         <v>0</v>
       </c>
       <c r="H92" s="14">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="I92" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J92" s="39"/>
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="94" t="str">
-        <f t="shared" si="0"/>
-        <v>6222</v>
+        <f>RIGHT(D93:D210,4)</f>
+        <v>6454</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C93" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="28">
-        <v>1001205386222</v>
+        <v>1001201976454</v>
       </c>
       <c r="E93" s="24"/>
-      <c r="F93" s="23"/>
+      <c r="F93" s="23">
+        <v>0.1</v>
+      </c>
       <c r="G93" s="23">
-        <f>E93*0.09</f>
+        <f>E93*0.1</f>
         <v>0</v>
       </c>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
+      <c r="H93" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I93" s="14">
+        <v>60</v>
+      </c>
       <c r="J93" s="39"/>
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="94" t="str">
-        <f t="shared" si="0"/>
-        <v>5931</v>
+        <f>RIGHT(D94:D211,4)</f>
+        <v>6222</v>
       </c>
       <c r="B94" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C94" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="28">
-        <v>1001060755931</v>
+        <v>1001205386222</v>
       </c>
       <c r="E94" s="24"/>
-      <c r="F94" s="23">
-        <v>0.22</v>
-      </c>
+      <c r="F94" s="23"/>
       <c r="G94" s="23">
-        <f>E94*0.22</f>
+        <f>E94*0.09</f>
         <v>0</v>
       </c>
-      <c r="H94" s="14">
-        <v>1.76</v>
-      </c>
-      <c r="I94" s="14">
-        <v>120</v>
-      </c>
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
       <c r="J94" s="39"/>
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="94" t="str">
         <f>RIGHT(D95:D212,4)</f>
-        <v>5708</v>
+        <v>5931</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C95" s="30" t="s">
-        <v>23</v>
+        <v>103</v>
+      </c>
+      <c r="C95" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D95" s="28">
-        <v>1001063145708</v>
+        <v>1001060755931</v>
       </c>
       <c r="E95" s="24"/>
       <c r="F95" s="23">
-        <v>0.51249999999999996</v>
+        <v>0.22</v>
       </c>
       <c r="G95" s="23">
-        <f>E95*1</f>
+        <f>E95*0.22</f>
         <v>0</v>
       </c>
       <c r="H95" s="14">
-        <v>4.0999999999999996</v>
+        <v>1.76</v>
       </c>
       <c r="I95" s="14">
         <v>120</v>
@@ -4206,72 +4209,75 @@
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="94" t="str">
-        <f>RIGHT(D96:D213,4)</f>
+        <f>RIGHT(D96:D214,4)</f>
+        <v>5708</v>
+      </c>
+      <c r="B96" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="28">
+        <v>1001063145708</v>
+      </c>
+      <c r="E96" s="24"/>
+      <c r="F96" s="23">
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="G96" s="23">
+        <f>E96*1</f>
+        <v>0</v>
+      </c>
+      <c r="H96" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I96" s="14">
+        <v>120</v>
+      </c>
+      <c r="J96" s="39"/>
+    </row>
+    <row r="97" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="94" t="str">
+        <f>RIGHT(D97:D215,4)</f>
         <v>6834</v>
       </c>
-      <c r="B96" s="27" t="s">
+      <c r="B97" s="27" t="s">
         <v>105</v>
-      </c>
-      <c r="C96" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D96" s="28">
-        <v>1001203146834</v>
-      </c>
-      <c r="E96" s="24"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23">
-        <f>E96*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="39"/>
-    </row>
-    <row r="97" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="94" t="str">
-        <f>RIGHT(D97:D214,4)</f>
-        <v>6448</v>
-      </c>
-      <c r="B97" s="27" t="s">
-        <v>167</v>
       </c>
       <c r="C97" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="28">
-        <v>1001234146448</v>
+        <v>1001203146834</v>
       </c>
       <c r="E97" s="24"/>
-      <c r="F97" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F97" s="23"/>
       <c r="G97" s="23">
-        <f>F97*E97</f>
+        <f>E97*0.1</f>
         <v>0</v>
       </c>
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
       <c r="J97" s="39"/>
-      <c r="K97" s="82"/>
     </row>
     <row r="98" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="94" t="str">
-        <f>RIGHT(D98:D215,4)</f>
-        <v>6921</v>
+        <f>RIGHT(D98:D216,4)</f>
+        <v>6448</v>
       </c>
       <c r="B98" s="27" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="C98" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="28">
-        <v>1001223296921</v>
+        <v>1001234146448</v>
       </c>
       <c r="E98" s="24"/>
       <c r="F98" s="23">
-        <v>0.14000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="G98" s="23">
         <f>F98*E98</f>
@@ -4284,21 +4290,21 @@
     </row>
     <row r="99" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="94" t="str">
-        <f>RIGHT(D99:D215,4)</f>
-        <v>5679</v>
+        <f>RIGHT(D99:D217,4)</f>
+        <v>6221</v>
       </c>
       <c r="B99" s="27" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C99" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="28">
-        <v>1001190765679</v>
+        <v>1001205376221</v>
       </c>
       <c r="E99" s="24"/>
       <c r="F99" s="23">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="G99" s="23">
         <f>F99*E99</f>
@@ -4309,244 +4315,245 @@
       <c r="J99" s="39"/>
       <c r="K99" s="82"/>
     </row>
-    <row r="100" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="94" t="str">
         <f>RIGHT(D100:D217,4)</f>
-        <v>4993</v>
+        <v>5679</v>
       </c>
       <c r="B100" s="27" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="C100" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="28">
-        <v>1001060764993</v>
+        <v>1001190765679</v>
       </c>
       <c r="E100" s="24"/>
       <c r="F100" s="23">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="G100" s="23">
-        <f>E100*0.25</f>
+        <f>F100*E100</f>
         <v>0</v>
       </c>
-      <c r="H100" s="14">
-        <v>2</v>
-      </c>
-      <c r="I100" s="14">
-        <v>120</v>
-      </c>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
       <c r="J100" s="39"/>
-    </row>
-    <row r="101" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K100" s="82"/>
+    </row>
+    <row r="101" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="94" t="str">
-        <f>RIGHT(D101:D218,4)</f>
-        <v>3684</v>
+        <f>RIGHT(D101:D219,4)</f>
+        <v>4993</v>
       </c>
       <c r="B101" s="27" t="s">
-        <v>195</v>
+        <v>106</v>
       </c>
       <c r="C101" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D101" s="28">
-        <v>1001062353684</v>
+        <v>1001060764993</v>
       </c>
       <c r="E101" s="24"/>
       <c r="F101" s="23">
         <v>0.25</v>
       </c>
       <c r="G101" s="23">
-        <f>F101*E101</f>
+        <f>E101*0.25</f>
         <v>0</v>
       </c>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
+      <c r="H101" s="14">
+        <v>2</v>
+      </c>
+      <c r="I101" s="14">
+        <v>120</v>
+      </c>
       <c r="J101" s="39"/>
-      <c r="K101" s="82"/>
-    </row>
-    <row r="102" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="94" t="str">
-        <f>RIGHT(D102:D218,4)</f>
-        <v>5682</v>
+        <f>RIGHT(D102:D220,4)</f>
+        <v>3684</v>
       </c>
       <c r="B102" s="27" t="s">
-        <v>107</v>
+        <v>195</v>
       </c>
       <c r="C102" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="28">
-        <v>1001193115682</v>
+        <v>1001062353684</v>
       </c>
       <c r="E102" s="24"/>
       <c r="F102" s="23">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G102" s="23">
-        <f>E102*0.12</f>
+        <f>F102*E102</f>
         <v>0</v>
       </c>
-      <c r="H102" s="14">
-        <v>0.96</v>
-      </c>
-      <c r="I102" s="14">
-        <v>60</v>
-      </c>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
       <c r="J102" s="39"/>
+      <c r="K102" s="82"/>
     </row>
     <row r="103" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="94" t="str">
-        <f>RIGHT(D103:D221,4)</f>
-        <v>4117</v>
+        <f>RIGHT(D103:D220,4)</f>
+        <v>5682</v>
       </c>
       <c r="B103" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C103" s="30" t="s">
-        <v>23</v>
+        <v>107</v>
+      </c>
+      <c r="C103" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="D103" s="28">
-        <v>1001062504117</v>
+        <v>1001193115682</v>
       </c>
       <c r="E103" s="24"/>
       <c r="F103" s="23">
-        <v>0.48749999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="G103" s="23">
-        <f>E103*1</f>
+        <f>E103*0.12</f>
         <v>0</v>
       </c>
       <c r="H103" s="14">
-        <v>3.9</v>
+        <v>0.96</v>
       </c>
       <c r="I103" s="14">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J103" s="39"/>
     </row>
     <row r="104" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="94" t="str">
-        <f>RIGHT(D104:D222,4)</f>
-        <v>5483</v>
+        <f>RIGHT(D104:D223,4)</f>
+        <v>4117</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C104" s="33" t="s">
-        <v>25</v>
+        <v>108</v>
+      </c>
+      <c r="C104" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D104" s="28">
-        <v>1001062505483</v>
+        <v>1001062504117</v>
       </c>
       <c r="E104" s="24"/>
       <c r="F104" s="23">
-        <v>0.25</v>
+        <v>0.48749999999999999</v>
       </c>
       <c r="G104" s="23">
-        <f>E104*0.25</f>
+        <f>E104*1</f>
         <v>0</v>
       </c>
       <c r="H104" s="14">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="I104" s="14">
         <v>120</v>
       </c>
       <c r="J104" s="39"/>
     </row>
-    <row r="105" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="94" t="str">
-        <f>RIGHT(D105:D223,4)</f>
-        <v>6453</v>
+        <f>RIGHT(D105:D224,4)</f>
+        <v>5483</v>
       </c>
       <c r="B105" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C105" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="28">
-        <v>1001202506453</v>
+        <v>1001062505483</v>
       </c>
       <c r="E105" s="24"/>
       <c r="F105" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="G105" s="23">
+        <f>E105*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="H105" s="14">
+        <v>2</v>
+      </c>
+      <c r="I105" s="14">
+        <v>120</v>
+      </c>
+      <c r="J105" s="39"/>
+    </row>
+    <row r="106" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="94" t="str">
+        <f>RIGHT(D106:D225,4)</f>
+        <v>6453</v>
+      </c>
+      <c r="B106" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" s="28">
+        <v>1001202506453</v>
+      </c>
+      <c r="E106" s="24"/>
+      <c r="F106" s="23">
         <v>0.1</v>
       </c>
-      <c r="G105" s="23">
-        <f>E105*0.1</f>
+      <c r="G106" s="23">
+        <f>E106*0.1</f>
         <v>0</v>
       </c>
-      <c r="H105" s="14">
+      <c r="H106" s="14">
         <v>0.8</v>
       </c>
-      <c r="I105" s="14">
+      <c r="I106" s="14">
         <v>60</v>
       </c>
-      <c r="J105" s="39"/>
-    </row>
-    <row r="106" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="94" t="str">
-        <f>RIGHT(D106:D224,4)</f>
+      <c r="J106" s="39"/>
+    </row>
+    <row r="107" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="94" t="str">
+        <f>RIGHT(D107:D226,4)</f>
         <v/>
       </c>
-      <c r="B106" s="74" t="s">
+      <c r="B107" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="C106" s="74"/>
-      <c r="D106" s="74"/>
-      <c r="E106" s="74"/>
-      <c r="F106" s="73"/>
-      <c r="G106" s="74"/>
-      <c r="H106" s="74"/>
-      <c r="I106" s="74"/>
-      <c r="J106" s="75"/>
-    </row>
-    <row r="107" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="94" t="str">
-        <f>RIGHT(D107:D228,4)</f>
+      <c r="C107" s="74"/>
+      <c r="D107" s="74"/>
+      <c r="E107" s="74"/>
+      <c r="F107" s="73"/>
+      <c r="G107" s="74"/>
+      <c r="H107" s="74"/>
+      <c r="I107" s="74"/>
+      <c r="J107" s="75"/>
+    </row>
+    <row r="108" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="94" t="str">
+        <f>RIGHT(D108:D230,4)</f>
         <v>6470</v>
       </c>
-      <c r="B107" s="29" t="s">
+      <c r="B108" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="C107" s="32" t="s">
+      <c r="C108" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D107" s="80">
+      <c r="D108" s="80">
         <v>1001092436470</v>
       </c>
-      <c r="E107" s="24"/>
-      <c r="F107" s="23"/>
-      <c r="G107" s="23">
-        <f>E107*1</f>
-        <v>0</v>
-      </c>
-      <c r="H107" s="14"/>
-      <c r="I107" s="14"/>
-      <c r="J107" s="39"/>
-    </row>
-    <row r="108" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="94" t="str">
-        <f>RIGHT(D108:D229,4)</f>
-        <v>6495</v>
-      </c>
-      <c r="B108" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="C108" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D108" s="80">
-        <v>1001092436495</v>
-      </c>
       <c r="E108" s="24"/>
-      <c r="F108" s="23">
-        <v>0.3</v>
-      </c>
+      <c r="F108" s="23"/>
       <c r="G108" s="23">
-        <f>F108*E108</f>
+        <f>E108*1</f>
         <v>0</v>
       </c>
       <c r="H108" s="14"/>
@@ -4555,145 +4562,144 @@
     </row>
     <row r="109" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="94" t="str">
-        <f>RIGHT(D109:D229,4)</f>
-        <v>6865</v>
+        <f>RIGHT(D109:D231,4)</f>
+        <v>6495</v>
       </c>
       <c r="B109" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D109" s="80">
-        <v>1001095716865</v>
+        <v>1001092436495</v>
       </c>
       <c r="E109" s="24"/>
-      <c r="F109" s="23"/>
+      <c r="F109" s="23">
+        <v>0.3</v>
+      </c>
       <c r="G109" s="23">
-        <f>E109*1</f>
+        <f>F109*E109</f>
         <v>0</v>
       </c>
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
       <c r="J109" s="39"/>
     </row>
-    <row r="110" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="94" t="str">
-        <f>RIGHT(D110:D226,4)</f>
+        <f>RIGHT(D110:D231,4)</f>
+        <v>6865</v>
+      </c>
+      <c r="B110" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C110" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D110" s="80">
+        <v>1001095716865</v>
+      </c>
+      <c r="E110" s="24"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="23">
+        <f>E110*1</f>
+        <v>0</v>
+      </c>
+      <c r="H110" s="14"/>
+      <c r="I110" s="14"/>
+      <c r="J110" s="39"/>
+    </row>
+    <row r="111" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="94" t="str">
+        <f>RIGHT(D111:D228,4)</f>
         <v>3215</v>
       </c>
-      <c r="B110" s="27" t="s">
+      <c r="B111" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="C110" s="37" t="s">
+      <c r="C111" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D110" s="51">
+      <c r="D111" s="51">
         <v>1001094053215</v>
       </c>
-      <c r="E110" s="24"/>
-      <c r="F110" s="23">
+      <c r="E111" s="24"/>
+      <c r="F111" s="23">
         <v>0.4</v>
       </c>
-      <c r="G110" s="23">
-        <f>E110*0.4</f>
+      <c r="G111" s="23">
+        <f>E111*0.4</f>
         <v>0</v>
       </c>
-      <c r="H110" s="14">
+      <c r="H111" s="14">
         <v>3.2</v>
       </c>
-      <c r="I110" s="14">
+      <c r="I111" s="14">
         <v>60</v>
       </c>
-      <c r="J110" s="39"/>
-    </row>
-    <row r="111" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="94" t="str">
-        <f>RIGHT(D111:D229,4)</f>
+      <c r="J111" s="39"/>
+    </row>
+    <row r="112" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="94" t="str">
+        <f>RIGHT(D112:D231,4)</f>
         <v/>
       </c>
-      <c r="B111" s="74" t="s">
+      <c r="B112" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="C111" s="74"/>
-      <c r="D111" s="74"/>
-      <c r="E111" s="74"/>
-      <c r="F111" s="73"/>
-      <c r="G111" s="74"/>
-      <c r="H111" s="74"/>
-      <c r="I111" s="74"/>
-      <c r="J111" s="75"/>
-    </row>
-    <row r="112" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="94" t="str">
-        <f>RIGHT(D112:D232,4)</f>
+      <c r="C112" s="74"/>
+      <c r="D112" s="74"/>
+      <c r="E112" s="74"/>
+      <c r="F112" s="73"/>
+      <c r="G112" s="74"/>
+      <c r="H112" s="74"/>
+      <c r="I112" s="74"/>
+      <c r="J112" s="75"/>
+    </row>
+    <row r="113" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="94" t="str">
+        <f>RIGHT(D113:D234,4)</f>
         <v>6206</v>
       </c>
-      <c r="B112" s="47" t="s">
+      <c r="B113" s="47" t="s">
         <v>117</v>
-      </c>
-      <c r="C112" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D112" s="28">
-        <v>1001084216206</v>
-      </c>
-      <c r="E112" s="24"/>
-      <c r="F112" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="G112" s="23">
-        <f>E112*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="H112" s="14">
-        <v>1.8</v>
-      </c>
-      <c r="I112" s="14">
-        <v>30</v>
-      </c>
-      <c r="J112" s="39"/>
-    </row>
-    <row r="113" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="94" t="str">
-        <f>RIGHT(D113:D233,4)</f>
-        <v>4691</v>
-      </c>
-      <c r="B113" s="47" t="s">
-        <v>197</v>
       </c>
       <c r="C113" s="35" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="28">
-        <v>1001083424691</v>
+        <v>1001084216206</v>
       </c>
       <c r="E113" s="24"/>
       <c r="F113" s="23">
         <v>0.3</v>
       </c>
       <c r="G113" s="23">
-        <f>F113*E113</f>
+        <f>E113*0.3</f>
         <v>0</v>
       </c>
-      <c r="H113" s="14"/>
-      <c r="I113" s="14"/>
-      <c r="J113" s="93"/>
-      <c r="K113" s="82"/>
+      <c r="H113" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="I113" s="14">
+        <v>30</v>
+      </c>
+      <c r="J113" s="39"/>
     </row>
     <row r="114" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="94" t="str">
-        <f>RIGHT(D114:D234,4)</f>
-        <v>6200</v>
+        <f>RIGHT(D114:D235,4)</f>
+        <v>4691</v>
       </c>
       <c r="B114" s="47" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C114" s="35" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="28">
-        <v>1001085636200</v>
+        <v>1001083424691</v>
       </c>
       <c r="E114" s="24"/>
       <c r="F114" s="23">
@@ -4710,17 +4716,17 @@
     </row>
     <row r="115" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="94" t="str">
-        <f>RIGHT(D115:D235,4)</f>
-        <v>6492</v>
+        <f>RIGHT(D115:D236,4)</f>
+        <v>6200</v>
       </c>
       <c r="B115" s="47" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C115" s="35" t="s">
         <v>25</v>
       </c>
       <c r="D115" s="28">
-        <v>1001084226492</v>
+        <v>1001085636200</v>
       </c>
       <c r="E115" s="24"/>
       <c r="F115" s="23">
@@ -4737,21 +4743,21 @@
     </row>
     <row r="116" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="94" t="str">
-        <f>RIGHT(D116:D233,4)</f>
-        <v>6279</v>
+        <f>RIGHT(D116:D237,4)</f>
+        <v>6492</v>
       </c>
       <c r="B116" s="47" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="C116" s="35" t="s">
         <v>25</v>
       </c>
       <c r="D116" s="28">
-        <v>1001220286279</v>
+        <v>1001084226492</v>
       </c>
       <c r="E116" s="24"/>
       <c r="F116" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G116" s="23">
         <f>F116*E116</f>
@@ -4764,21 +4770,21 @@
     </row>
     <row r="117" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="94" t="str">
-        <f>RIGHT(D117:D234,4)</f>
-        <v>4786</v>
+        <f>RIGHT(D117:D235,4)</f>
+        <v>6279</v>
       </c>
       <c r="B117" s="47" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="C117" s="35" t="s">
         <v>25</v>
       </c>
       <c r="D117" s="28">
-        <v>1001053944786</v>
+        <v>1001220286279</v>
       </c>
       <c r="E117" s="24"/>
       <c r="F117" s="23">
-        <v>7.0000000000000007E-2</v>
+        <v>0.15</v>
       </c>
       <c r="G117" s="23">
         <f>F117*E117</f>
@@ -4789,213 +4795,220 @@
       <c r="J117" s="93"/>
       <c r="K117" s="82"/>
     </row>
-    <row r="118" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="94" t="str">
-        <f>RIGHT(D118:D233,4)</f>
-        <v>6919</v>
+        <f>RIGHT(D118:D236,4)</f>
+        <v>4786</v>
       </c>
       <c r="B118" s="47" t="s">
-        <v>118</v>
+        <v>204</v>
       </c>
       <c r="C118" s="35" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="28">
-        <v>1001223296919</v>
+        <v>1001053944786</v>
       </c>
       <c r="E118" s="24"/>
-      <c r="F118" s="23"/>
+      <c r="F118" s="23">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="G118" s="23">
-        <f>E118*0.18</f>
+        <f>F118*E118</f>
         <v>0</v>
       </c>
       <c r="H118" s="14"/>
       <c r="I118" s="14"/>
       <c r="J118" s="93"/>
-    </row>
-    <row r="119" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K118" s="82"/>
+    </row>
+    <row r="119" spans="1:11" s="92" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="94" t="str">
-        <f>RIGHT(D119:D234,4)</f>
+        <f>RIGHT(D119:D237,4)</f>
+        <v>6921</v>
+      </c>
+      <c r="B119" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="C119" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D119" s="28">
+        <v>1001223296921</v>
+      </c>
+      <c r="E119" s="24"/>
+      <c r="F119" s="23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G119" s="23">
+        <f>F119*E119</f>
+        <v>0</v>
+      </c>
+      <c r="H119" s="14"/>
+      <c r="I119" s="14"/>
+      <c r="J119" s="39"/>
+      <c r="K119" s="82"/>
+    </row>
+    <row r="120" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="94" t="str">
+        <f>RIGHT(D120:D235,4)</f>
+        <v>6919</v>
+      </c>
+      <c r="B120" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="C120" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D120" s="28">
+        <v>1001223296919</v>
+      </c>
+      <c r="E120" s="24"/>
+      <c r="F120" s="23"/>
+      <c r="G120" s="23">
+        <f>E120*0.18</f>
+        <v>0</v>
+      </c>
+      <c r="H120" s="14"/>
+      <c r="I120" s="14"/>
+      <c r="J120" s="93"/>
+    </row>
+    <row r="121" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="94" t="str">
+        <f>RIGHT(D121:D236,4)</f>
         <v/>
       </c>
-      <c r="B119" s="74" t="s">
+      <c r="B121" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="C119" s="74"/>
-      <c r="D119" s="74"/>
-      <c r="E119" s="74"/>
-      <c r="F119" s="73"/>
-      <c r="G119" s="74"/>
-      <c r="H119" s="74"/>
-      <c r="I119" s="74"/>
-      <c r="J119" s="75"/>
-    </row>
-    <row r="120" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="94" t="str">
-        <f>RIGHT(D120:D237,4)</f>
-        <v/>
-      </c>
-      <c r="B120" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="C120" s="74"/>
-      <c r="D120" s="74"/>
-      <c r="E120" s="74"/>
-      <c r="F120" s="73"/>
-      <c r="G120" s="74"/>
-      <c r="H120" s="74"/>
-      <c r="I120" s="74"/>
-      <c r="J120" s="75"/>
-    </row>
-    <row r="121" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="94" t="str">
-        <f>RIGHT(D121:D238,4)</f>
-        <v>6314</v>
-      </c>
-      <c r="B121" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="C121" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D121" s="28">
-        <v>1002112606314</v>
-      </c>
-      <c r="E121" s="24"/>
-      <c r="F121" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G121" s="23">
-        <f>E121*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H121" s="14">
-        <v>8</v>
-      </c>
-      <c r="I121" s="72">
-        <v>120</v>
-      </c>
-      <c r="J121" s="39"/>
-    </row>
-    <row r="122" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C121" s="74"/>
+      <c r="D121" s="74"/>
+      <c r="E121" s="74"/>
+      <c r="F121" s="73"/>
+      <c r="G121" s="74"/>
+      <c r="H121" s="74"/>
+      <c r="I121" s="74"/>
+      <c r="J121" s="75"/>
+    </row>
+    <row r="122" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="94" t="str">
         <f>RIGHT(D122:D239,4)</f>
-        <v>6155</v>
-      </c>
-      <c r="B122" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="C122" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D122" s="28">
-        <v>1002115036155</v>
-      </c>
-      <c r="E122" s="24"/>
-      <c r="F122" s="23"/>
-      <c r="G122" s="23">
-        <f>E122*0.45</f>
-        <v>0</v>
-      </c>
-      <c r="H122" s="14"/>
-      <c r="I122" s="72"/>
-      <c r="J122" s="39"/>
-    </row>
-    <row r="123" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B122" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="C122" s="74"/>
+      <c r="D122" s="74"/>
+      <c r="E122" s="74"/>
+      <c r="F122" s="73"/>
+      <c r="G122" s="74"/>
+      <c r="H122" s="74"/>
+      <c r="I122" s="74"/>
+      <c r="J122" s="75"/>
+    </row>
+    <row r="123" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A123" s="94" t="str">
         <f>RIGHT(D123:D240,4)</f>
-        <v>6157</v>
+        <v>6314</v>
       </c>
       <c r="B123" s="47" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C123" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D123" s="28">
+        <v>1002112606314</v>
+      </c>
+      <c r="E123" s="24"/>
+      <c r="F123" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G123" s="23">
+        <f>E123*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H123" s="14">
+        <v>8</v>
+      </c>
+      <c r="I123" s="72">
+        <v>120</v>
+      </c>
+      <c r="J123" s="39"/>
+    </row>
+    <row r="124" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="94" t="str">
+        <f>RIGHT(D124:D241,4)</f>
+        <v>6155</v>
+      </c>
+      <c r="B124" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C124" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D124" s="28">
+        <v>1002115036155</v>
+      </c>
+      <c r="E124" s="24"/>
+      <c r="F124" s="23"/>
+      <c r="G124" s="23">
+        <f>E124*0.45</f>
+        <v>0</v>
+      </c>
+      <c r="H124" s="14"/>
+      <c r="I124" s="72"/>
+      <c r="J124" s="39"/>
+    </row>
+    <row r="125" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="94" t="str">
+        <f>RIGHT(D125:D242,4)</f>
+        <v>6157</v>
+      </c>
+      <c r="B125" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C125" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D125" s="28">
         <v>1002115056157</v>
       </c>
-      <c r="E123" s="24"/>
-      <c r="F123" s="23"/>
-      <c r="G123" s="23">
-        <f>E123*0.45</f>
+      <c r="E125" s="24"/>
+      <c r="F125" s="23"/>
+      <c r="G125" s="23">
+        <f>E125*0.45</f>
         <v>0</v>
       </c>
-      <c r="H123" s="14"/>
-      <c r="I123" s="72"/>
-      <c r="J123" s="39"/>
-    </row>
-    <row r="124" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="94" t="str">
-        <f t="shared" ref="A124:A135" si="1">RIGHT(D124:D239,4)</f>
+      <c r="H125" s="14"/>
+      <c r="I125" s="72"/>
+      <c r="J125" s="39"/>
+    </row>
+    <row r="126" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="94" t="str">
+        <f t="shared" ref="A126:A137" si="0">RIGHT(D126:D241,4)</f>
         <v>6313</v>
       </c>
-      <c r="B124" s="47" t="s">
+      <c r="B126" s="47" t="s">
         <v>124</v>
-      </c>
-      <c r="C124" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D124" s="28">
-        <v>1002112606313</v>
-      </c>
-      <c r="E124" s="24"/>
-      <c r="F124" s="23">
-        <v>0.9</v>
-      </c>
-      <c r="G124" s="23">
-        <f>E124*0.9</f>
-        <v>0</v>
-      </c>
-      <c r="H124" s="14">
-        <v>9</v>
-      </c>
-      <c r="I124" s="72">
-        <v>120</v>
-      </c>
-      <c r="J124" s="39"/>
-    </row>
-    <row r="125" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B125" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="C125" s="74"/>
-      <c r="D125" s="74"/>
-      <c r="E125" s="74"/>
-      <c r="F125" s="73"/>
-      <c r="G125" s="74"/>
-      <c r="H125" s="74"/>
-      <c r="I125" s="74"/>
-      <c r="J125" s="75"/>
-    </row>
-    <row r="126" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>4945</v>
-      </c>
-      <c r="B126" s="47" t="s">
-        <v>126</v>
       </c>
       <c r="C126" s="36" t="s">
         <v>25</v>
       </c>
       <c r="D126" s="28">
-        <v>1002151784945</v>
+        <v>1002112606313</v>
       </c>
       <c r="E126" s="24"/>
       <c r="F126" s="23">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="G126" s="23">
-        <f>E126*0.5</f>
+        <f>E126*0.9</f>
         <v>0</v>
       </c>
       <c r="H126" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I126" s="72">
         <v>120</v>
@@ -5004,11 +5017,11 @@
     </row>
     <row r="127" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="94" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B127" s="74" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C127" s="74"/>
       <c r="D127" s="74"/>
@@ -5019,204 +5032,191 @@
       <c r="I127" s="74"/>
       <c r="J127" s="75"/>
     </row>
-    <row r="128" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="94" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>4945</v>
+      </c>
+      <c r="B128" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="C128" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D128" s="28">
+        <v>1002151784945</v>
+      </c>
+      <c r="E128" s="24"/>
+      <c r="F128" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G128" s="23">
+        <f>E128*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H128" s="14">
+        <v>8</v>
+      </c>
+      <c r="I128" s="72">
+        <v>120</v>
+      </c>
+      <c r="J128" s="39"/>
+    </row>
+    <row r="129" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B129" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="C129" s="74"/>
+      <c r="D129" s="74"/>
+      <c r="E129" s="74"/>
+      <c r="F129" s="73"/>
+      <c r="G129" s="74"/>
+      <c r="H129" s="74"/>
+      <c r="I129" s="74"/>
+      <c r="J129" s="75"/>
+    </row>
+    <row r="130" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="94" t="str">
+        <f t="shared" si="0"/>
         <v>4956</v>
       </c>
-      <c r="B128" s="89" t="s">
+      <c r="B130" s="89" t="s">
         <v>128</v>
       </c>
-      <c r="C128" s="90" t="s">
+      <c r="C130" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="D128" s="83">
+      <c r="D130" s="83">
         <v>1002133974956</v>
       </c>
-      <c r="E128" s="84"/>
-      <c r="F128" s="85">
+      <c r="E130" s="84"/>
+      <c r="F130" s="85">
         <v>0.42</v>
       </c>
-      <c r="G128" s="85">
-        <f>E128*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H128" s="86">
-        <v>4.2</v>
-      </c>
-      <c r="I128" s="91">
-        <v>120</v>
-      </c>
-      <c r="J128" s="86"/>
-      <c r="K128" s="87"/>
-    </row>
-    <row r="129" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>1762</v>
-      </c>
-      <c r="B129" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="C129" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D129" s="28">
-        <v>1002131151762</v>
-      </c>
-      <c r="E129" s="24"/>
-      <c r="F129" s="23">
-        <v>0.42</v>
-      </c>
-      <c r="G129" s="23">
-        <f>E129*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H129" s="14">
-        <v>4.2</v>
-      </c>
-      <c r="I129" s="72">
-        <v>120</v>
-      </c>
-      <c r="J129" s="39"/>
-    </row>
-    <row r="130" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>1764</v>
-      </c>
-      <c r="B130" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="C130" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D130" s="28">
-        <v>1002131181764</v>
-      </c>
-      <c r="E130" s="24"/>
-      <c r="F130" s="23">
-        <v>0.42</v>
-      </c>
-      <c r="G130" s="23">
+      <c r="G130" s="85">
         <f>E130*0.42</f>
         <v>0</v>
       </c>
-      <c r="H130" s="14">
+      <c r="H130" s="86">
         <v>4.2</v>
       </c>
-      <c r="I130" s="72">
+      <c r="I130" s="91">
         <v>120</v>
       </c>
-      <c r="J130" s="39"/>
-    </row>
-    <row r="131" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J130" s="86"/>
+      <c r="K130" s="87"/>
+    </row>
+    <row r="131" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A131" s="94" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>1762</v>
+      </c>
+      <c r="B131" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C131" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D131" s="28">
+        <v>1002131151762</v>
+      </c>
+      <c r="E131" s="24"/>
+      <c r="F131" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G131" s="23">
+        <f>E131*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H131" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I131" s="72">
+        <v>120</v>
+      </c>
+      <c r="J131" s="39"/>
+    </row>
+    <row r="132" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v>1764</v>
+      </c>
+      <c r="B132" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C132" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D132" s="28">
+        <v>1002131181764</v>
+      </c>
+      <c r="E132" s="24"/>
+      <c r="F132" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G132" s="23">
+        <f>E132*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H132" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I132" s="72">
+        <v>120</v>
+      </c>
+      <c r="J132" s="39"/>
+    </row>
+    <row r="133" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="94" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B131" s="74" t="s">
+      <c r="B133" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="C131" s="74"/>
-      <c r="D131" s="74"/>
-      <c r="E131" s="74"/>
-      <c r="F131" s="73"/>
-      <c r="G131" s="74"/>
-      <c r="H131" s="74"/>
-      <c r="I131" s="74"/>
-      <c r="J131" s="75"/>
-    </row>
-    <row r="132" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="94" t="str">
-        <f t="shared" si="1"/>
+      <c r="C133" s="74"/>
+      <c r="D133" s="74"/>
+      <c r="E133" s="74"/>
+      <c r="F133" s="73"/>
+      <c r="G133" s="74"/>
+      <c r="H133" s="74"/>
+      <c r="I133" s="74"/>
+      <c r="J133" s="75"/>
+    </row>
+    <row r="134" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="94" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B132" s="74" t="s">
+      <c r="B134" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="C132" s="74"/>
-      <c r="D132" s="74"/>
-      <c r="E132" s="74"/>
-      <c r="F132" s="73"/>
-      <c r="G132" s="74"/>
-      <c r="H132" s="74"/>
-      <c r="I132" s="74"/>
-      <c r="J132" s="75"/>
-    </row>
-    <row r="133" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="94" t="str">
-        <f t="shared" si="1"/>
+      <c r="C134" s="74"/>
+      <c r="D134" s="74"/>
+      <c r="E134" s="74"/>
+      <c r="F134" s="73"/>
+      <c r="G134" s="74"/>
+      <c r="H134" s="74"/>
+      <c r="I134" s="74"/>
+      <c r="J134" s="75"/>
+    </row>
+    <row r="135" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="94" t="str">
+        <f t="shared" si="0"/>
         <v>6004</v>
       </c>
-      <c r="B133" s="47" t="s">
+      <c r="B135" s="47" t="s">
         <v>133</v>
-      </c>
-      <c r="C133" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D133" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="E133" s="24"/>
-      <c r="F133" s="23">
-        <v>1</v>
-      </c>
-      <c r="G133" s="23">
-        <f>E133*1</f>
-        <v>0</v>
-      </c>
-      <c r="H133" s="14">
-        <v>8</v>
-      </c>
-      <c r="I133" s="72">
-        <v>120</v>
-      </c>
-      <c r="J133" s="39"/>
-    </row>
-    <row r="134" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>5417</v>
-      </c>
-      <c r="B134" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="C134" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D134" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="E134" s="24"/>
-      <c r="F134" s="23">
-        <v>2</v>
-      </c>
-      <c r="G134" s="23">
-        <f>E134*1</f>
-        <v>0</v>
-      </c>
-      <c r="H134" s="14">
-        <v>6</v>
-      </c>
-      <c r="I134" s="72">
-        <v>90</v>
-      </c>
-      <c r="J134" s="39"/>
-    </row>
-    <row r="135" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="94" t="str">
-        <f t="shared" si="1"/>
-        <v>6019</v>
-      </c>
-      <c r="B135" s="47" t="s">
-        <v>137</v>
       </c>
       <c r="C135" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D135" s="69" t="s">
-        <v>138</v>
+      <c r="D135" s="68" t="s">
+        <v>134</v>
       </c>
       <c r="E135" s="24"/>
       <c r="F135" s="23">
@@ -5227,60 +5227,100 @@
         <v>0</v>
       </c>
       <c r="H135" s="14">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I135" s="72">
         <v>120</v>
       </c>
       <c r="J135" s="39"/>
     </row>
-    <row r="136" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="77"/>
-      <c r="B136" s="77" t="s">
+    <row r="136" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v>5417</v>
+      </c>
+      <c r="B136" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="C136" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D136" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="E136" s="24"/>
+      <c r="F136" s="23">
+        <v>2</v>
+      </c>
+      <c r="G136" s="23">
+        <f>E136*1</f>
+        <v>0</v>
+      </c>
+      <c r="H136" s="14">
+        <v>6</v>
+      </c>
+      <c r="I136" s="72">
+        <v>90</v>
+      </c>
+      <c r="J136" s="39"/>
+    </row>
+    <row r="137" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v>6019</v>
+      </c>
+      <c r="B137" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C137" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D137" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="E137" s="24"/>
+      <c r="F137" s="23">
+        <v>1</v>
+      </c>
+      <c r="G137" s="23">
+        <f>E137*1</f>
+        <v>0</v>
+      </c>
+      <c r="H137" s="14">
+        <v>12</v>
+      </c>
+      <c r="I137" s="72">
+        <v>120</v>
+      </c>
+      <c r="J137" s="39"/>
+    </row>
+    <row r="138" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="77"/>
+      <c r="B138" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="C136" s="16"/>
-      <c r="D136" s="48"/>
-      <c r="E136" s="17">
-        <f>SUM(E5:E135)</f>
+      <c r="C138" s="16"/>
+      <c r="D138" s="48"/>
+      <c r="E138" s="17">
+        <f>SUM(E5:E137)</f>
         <v>0</v>
       </c>
-      <c r="F136" s="17">
-        <f>SUM(F10:F135)</f>
-        <v>38.744166666666679</v>
-      </c>
-      <c r="G136" s="17">
-        <f>SUM(G11:G135)</f>
+      <c r="F138" s="17">
+        <f>SUM(F10:F137)</f>
+        <v>39.234166666666674</v>
+      </c>
+      <c r="G138" s="17">
+        <f>SUM(G11:G137)</f>
         <v>0</v>
       </c>
-      <c r="H136" s="17">
-        <f>SUM(H10:H132)</f>
+      <c r="H138" s="17">
+        <f>SUM(H10:H134)</f>
         <v>154.69999999999993</v>
       </c>
-      <c r="I136" s="17"/>
-      <c r="J136" s="17"/>
-    </row>
-    <row r="137" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="53"/>
-      <c r="C137" s="18"/>
-      <c r="D137" s="52"/>
-      <c r="F137" s="19"/>
-      <c r="G137" s="19"/>
-      <c r="H137" s="20"/>
-      <c r="I137" s="20"/>
-      <c r="J137" s="21"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B138" s="53"/>
-      <c r="C138" s="18"/>
-      <c r="D138" s="52"/>
-      <c r="F138" s="19"/>
-      <c r="G138" s="19"/>
-      <c r="H138" s="20"/>
-      <c r="I138" s="20"/>
-      <c r="J138" s="21"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I138" s="17"/>
+      <c r="J138" s="17"/>
+    </row>
+    <row r="139" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B139" s="53"/>
       <c r="C139" s="18"/>
       <c r="D139" s="52"/>
@@ -5290,7 +5330,7 @@
       <c r="I139" s="20"/>
       <c r="J139" s="21"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B140" s="53"/>
       <c r="C140" s="18"/>
       <c r="D140" s="52"/>
@@ -5300,7 +5340,7 @@
       <c r="I140" s="20"/>
       <c r="J140" s="21"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B141" s="53"/>
       <c r="C141" s="18"/>
       <c r="D141" s="52"/>
@@ -5310,7 +5350,7 @@
       <c r="I141" s="20"/>
       <c r="J141" s="21"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B142" s="53"/>
       <c r="C142" s="18"/>
       <c r="D142" s="52"/>
@@ -5320,7 +5360,7 @@
       <c r="I142" s="20"/>
       <c r="J142" s="21"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B143" s="53"/>
       <c r="C143" s="18"/>
       <c r="D143" s="52"/>
@@ -5330,7 +5370,7 @@
       <c r="I143" s="20"/>
       <c r="J143" s="21"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B144" s="53"/>
       <c r="C144" s="18"/>
       <c r="D144" s="52"/>
@@ -20500,17 +20540,37 @@
       <c r="I1660" s="20"/>
       <c r="J1660" s="21"/>
     </row>
+    <row r="1661" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1661" s="53"/>
+      <c r="C1661" s="18"/>
+      <c r="D1661" s="52"/>
+      <c r="F1661" s="19"/>
+      <c r="G1661" s="19"/>
+      <c r="H1661" s="20"/>
+      <c r="I1661" s="20"/>
+      <c r="J1661" s="21"/>
+    </row>
+    <row r="1662" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1662" s="53"/>
+      <c r="C1662" s="18"/>
+      <c r="D1662" s="52"/>
+      <c r="F1662" s="19"/>
+      <c r="G1662" s="19"/>
+      <c r="H1662" s="20"/>
+      <c r="I1662" s="20"/>
+      <c r="J1662" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:J136" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:J138" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B129" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B131" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>40</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D133:D135" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D135:D137" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>13</formula1>
     </dataValidation>
   </dataValidations>
